--- a/BackTest/2020-01-21 BackTest RDN.xlsx
+++ b/BackTest/2020-01-21 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -769,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2496,6 +2559,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2539,6 +2603,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2580,6 +2645,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2619,6 +2685,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2660,6 +2727,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2701,6 +2769,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2736,6 +2805,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2771,6 +2841,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2806,6 +2877,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2841,6 +2913,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2876,6 +2949,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2911,6 +2985,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2946,6 +3021,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2981,6 +3057,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3016,6 +3093,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3051,6 +3129,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3086,6 +3165,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3121,6 +3201,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3156,6 +3237,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3191,6 +3273,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3226,6 +3309,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3261,6 +3345,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3296,6 +3381,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3331,6 +3417,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3366,6 +3453,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3401,6 +3489,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3436,6 +3525,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3471,6 +3561,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3506,6 +3597,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3541,6 +3633,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3576,6 +3669,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3611,6 +3705,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3646,6 +3741,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3681,6 +3777,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3716,6 +3813,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3751,6 +3849,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3786,6 +3885,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3821,6 +3921,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3856,6 +3957,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3891,6 +3993,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3926,6 +4029,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3961,6 +4065,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3996,6 +4101,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4031,6 +4137,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4066,6 +4173,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4107,6 +4215,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4146,6 +4255,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4185,6 +4295,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4224,6 +4335,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest RDN.xlsx
+++ b/BackTest/2020-01-21 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>141</v>
+        <v>147.4</v>
       </c>
       <c r="C2" t="n">
-        <v>141</v>
+        <v>147.4</v>
       </c>
       <c r="D2" t="n">
-        <v>141</v>
+        <v>147.4</v>
       </c>
       <c r="E2" t="n">
-        <v>141</v>
+        <v>147.4</v>
       </c>
       <c r="F2" t="n">
-        <v>786</v>
+        <v>248</v>
       </c>
       <c r="G2" t="n">
-        <v>74988.53820000002</v>
+        <v>100730.8485</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>141</v>
+        <v>147.9</v>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
-        <v>141</v>
+        <v>147.9</v>
       </c>
       <c r="F3" t="n">
-        <v>231.01</v>
+        <v>665.336</v>
       </c>
       <c r="G3" t="n">
-        <v>74988.53820000002</v>
+        <v>101396.1845</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>143.3</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E4" t="n">
-        <v>140</v>
+        <v>143.1</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>943.63</v>
       </c>
       <c r="G4" t="n">
-        <v>74978.53820000002</v>
+        <v>100452.5545</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>141</v>
+        <v>144.8</v>
       </c>
       <c r="C5" t="n">
-        <v>141</v>
+        <v>144.8</v>
       </c>
       <c r="D5" t="n">
-        <v>141</v>
+        <v>144.8</v>
       </c>
       <c r="E5" t="n">
-        <v>141</v>
+        <v>144.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1591.0705</v>
+        <v>522</v>
       </c>
       <c r="G5" t="n">
-        <v>76569.60870000003</v>
+        <v>100974.5545</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>141.2</v>
+        <v>145</v>
       </c>
       <c r="C6" t="n">
-        <v>141.2</v>
+        <v>143.1</v>
       </c>
       <c r="D6" t="n">
-        <v>141.2</v>
+        <v>145</v>
       </c>
       <c r="E6" t="n">
-        <v>141.2</v>
+        <v>143.1</v>
       </c>
       <c r="F6" t="n">
-        <v>78</v>
+        <v>1345.61</v>
       </c>
       <c r="G6" t="n">
-        <v>76647.60870000003</v>
+        <v>99628.94450000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>141.2</v>
+        <v>145.7</v>
       </c>
       <c r="C7" t="n">
-        <v>138.2</v>
+        <v>145.7</v>
       </c>
       <c r="D7" t="n">
-        <v>143</v>
+        <v>145.7</v>
       </c>
       <c r="E7" t="n">
-        <v>138.2</v>
+        <v>145.7</v>
       </c>
       <c r="F7" t="n">
-        <v>3571.8214</v>
+        <v>428.0143</v>
       </c>
       <c r="G7" t="n">
-        <v>73075.78730000003</v>
+        <v>100056.9588</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>139.9</v>
+        <v>144.6</v>
       </c>
       <c r="C8" t="n">
-        <v>145.4</v>
+        <v>144.6</v>
       </c>
       <c r="D8" t="n">
-        <v>145.4</v>
+        <v>144.6</v>
       </c>
       <c r="E8" t="n">
-        <v>139.9</v>
+        <v>144.6</v>
       </c>
       <c r="F8" t="n">
-        <v>2615</v>
+        <v>254.0762</v>
       </c>
       <c r="G8" t="n">
-        <v>75690.78730000003</v>
+        <v>99802.88260000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>141.7</v>
+        <v>144.6</v>
       </c>
       <c r="C9" t="n">
-        <v>141.9</v>
+        <v>144.6</v>
       </c>
       <c r="D9" t="n">
-        <v>141.9</v>
+        <v>144.6</v>
       </c>
       <c r="E9" t="n">
-        <v>141.7</v>
+        <v>144.6</v>
       </c>
       <c r="F9" t="n">
-        <v>1396</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>74294.78730000003</v>
+        <v>99802.88260000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>141.2</v>
+        <v>144.6</v>
       </c>
       <c r="C10" t="n">
-        <v>141.2</v>
+        <v>144.6</v>
       </c>
       <c r="D10" t="n">
-        <v>141.2</v>
+        <v>144.6</v>
       </c>
       <c r="E10" t="n">
-        <v>141.2</v>
+        <v>144.6</v>
       </c>
       <c r="F10" t="n">
-        <v>588</v>
+        <v>0.4278</v>
       </c>
       <c r="G10" t="n">
-        <v>73706.78730000003</v>
+        <v>99802.88260000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142</v>
+        <v>144.9</v>
       </c>
       <c r="C11" t="n">
-        <v>141</v>
+        <v>145.3</v>
       </c>
       <c r="D11" t="n">
-        <v>142</v>
+        <v>145.3</v>
       </c>
       <c r="E11" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F11" t="n">
-        <v>1018</v>
+        <v>2405</v>
       </c>
       <c r="G11" t="n">
-        <v>72688.78730000003</v>
+        <v>102207.8826</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C12" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>141</v>
+        <v>146.1</v>
       </c>
       <c r="E12" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F12" t="n">
-        <v>600.1799999999999</v>
+        <v>2140.9648</v>
       </c>
       <c r="G12" t="n">
-        <v>72688.78730000003</v>
+        <v>100066.9178</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141</v>
+        <v>143.1</v>
       </c>
       <c r="C13" t="n">
-        <v>141</v>
+        <v>143.1</v>
       </c>
       <c r="D13" t="n">
-        <v>141</v>
+        <v>143.1</v>
       </c>
       <c r="E13" t="n">
-        <v>141</v>
+        <v>143.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1050.82</v>
+        <v>257.57</v>
       </c>
       <c r="G13" t="n">
-        <v>72688.78730000003</v>
+        <v>100324.4878</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141</v>
+        <v>143.1</v>
       </c>
       <c r="C14" t="n">
-        <v>142</v>
+        <v>143.1</v>
       </c>
       <c r="D14" t="n">
-        <v>142</v>
+        <v>143.1</v>
       </c>
       <c r="E14" t="n">
-        <v>141</v>
+        <v>143.1</v>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>94.2154</v>
       </c>
       <c r="G14" t="n">
-        <v>72888.78730000003</v>
+        <v>100324.4878</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140.2</v>
+        <v>144</v>
       </c>
       <c r="C15" t="n">
-        <v>139.5</v>
+        <v>145</v>
       </c>
       <c r="D15" t="n">
-        <v>140.9</v>
+        <v>145</v>
       </c>
       <c r="E15" t="n">
-        <v>138.1</v>
+        <v>144</v>
       </c>
       <c r="F15" t="n">
-        <v>7024.186</v>
+        <v>473.0921</v>
       </c>
       <c r="G15" t="n">
-        <v>65864.60130000002</v>
+        <v>100797.5799</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140.8</v>
+        <v>146</v>
       </c>
       <c r="C16" t="n">
-        <v>140.8</v>
+        <v>146</v>
       </c>
       <c r="D16" t="n">
-        <v>140.8</v>
+        <v>146</v>
       </c>
       <c r="E16" t="n">
-        <v>140.8</v>
+        <v>146</v>
       </c>
       <c r="F16" t="n">
-        <v>361</v>
+        <v>1338.6353</v>
       </c>
       <c r="G16" t="n">
-        <v>66225.60130000002</v>
+        <v>102136.2152</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>141.7</v>
+        <v>144</v>
       </c>
       <c r="C17" t="n">
-        <v>141.7</v>
+        <v>144</v>
       </c>
       <c r="D17" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E17" t="n">
-        <v>141.7</v>
+        <v>144</v>
       </c>
       <c r="F17" t="n">
-        <v>12126.793</v>
+        <v>172</v>
       </c>
       <c r="G17" t="n">
-        <v>78352.39430000003</v>
+        <v>101964.2152</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>141.7</v>
+        <v>143</v>
       </c>
       <c r="C18" t="n">
-        <v>141</v>
+        <v>142.6</v>
       </c>
       <c r="D18" t="n">
-        <v>142.7</v>
+        <v>143</v>
       </c>
       <c r="E18" t="n">
-        <v>140</v>
+        <v>142.6</v>
       </c>
       <c r="F18" t="n">
-        <v>5983.2772</v>
+        <v>2485.8569</v>
       </c>
       <c r="G18" t="n">
-        <v>72369.11710000003</v>
+        <v>99478.35830000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>139.1</v>
+        <v>142.6</v>
       </c>
       <c r="C19" t="n">
-        <v>139.1</v>
+        <v>142.6</v>
       </c>
       <c r="D19" t="n">
-        <v>139.1</v>
+        <v>142.6</v>
       </c>
       <c r="E19" t="n">
-        <v>139.1</v>
+        <v>142.6</v>
       </c>
       <c r="F19" t="n">
-        <v>276</v>
+        <v>740.1334000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>72093.11710000003</v>
+        <v>99478.35830000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="C20" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="D20" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="E20" t="n">
-        <v>139.9</v>
+        <v>142</v>
       </c>
       <c r="F20" t="n">
-        <v>235.8839</v>
+        <v>81.1876</v>
       </c>
       <c r="G20" t="n">
-        <v>72329.00100000003</v>
+        <v>99397.17070000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>140.6</v>
+        <v>142</v>
       </c>
       <c r="C21" t="n">
-        <v>140.6</v>
+        <v>142</v>
       </c>
       <c r="D21" t="n">
-        <v>140.7</v>
+        <v>142</v>
       </c>
       <c r="E21" t="n">
-        <v>140.6</v>
+        <v>142</v>
       </c>
       <c r="F21" t="n">
-        <v>3048.0948</v>
+        <v>23.96</v>
       </c>
       <c r="G21" t="n">
-        <v>75377.09580000004</v>
+        <v>99397.17070000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>139.2</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n">
-        <v>140.6</v>
+        <v>141.3</v>
       </c>
       <c r="D22" t="n">
-        <v>140.6</v>
+        <v>142</v>
       </c>
       <c r="E22" t="n">
-        <v>139.2</v>
+        <v>141.3</v>
       </c>
       <c r="F22" t="n">
-        <v>791.9457</v>
+        <v>1207.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>75377.09580000004</v>
+        <v>98189.17080000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>140.7</v>
+        <v>141.3</v>
       </c>
       <c r="C23" t="n">
-        <v>141</v>
+        <v>141.3</v>
       </c>
       <c r="D23" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E23" t="n">
-        <v>140.7</v>
+        <v>141.3</v>
       </c>
       <c r="F23" t="n">
-        <v>758.9999</v>
+        <v>698.8124</v>
       </c>
       <c r="G23" t="n">
-        <v>76136.09570000003</v>
+        <v>98189.17080000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>140.1</v>
+        <v>141.3</v>
       </c>
       <c r="C24" t="n">
-        <v>141.9</v>
+        <v>141.2</v>
       </c>
       <c r="D24" t="n">
-        <v>141.9</v>
+        <v>141.3</v>
       </c>
       <c r="E24" t="n">
-        <v>140.1</v>
+        <v>141.2</v>
       </c>
       <c r="F24" t="n">
-        <v>1247.9611</v>
+        <v>2717.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>77384.05680000003</v>
+        <v>95471.17090000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>141.7</v>
+        <v>141.2</v>
       </c>
       <c r="C25" t="n">
-        <v>141.7</v>
+        <v>141</v>
       </c>
       <c r="D25" t="n">
-        <v>141.7</v>
+        <v>141.2</v>
       </c>
       <c r="E25" t="n">
-        <v>141.7</v>
+        <v>141</v>
       </c>
       <c r="F25" t="n">
-        <v>815.5068</v>
+        <v>12988.6327</v>
       </c>
       <c r="G25" t="n">
-        <v>76568.55000000003</v>
+        <v>82482.53820000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>141</v>
+        <v>141.2</v>
       </c>
       <c r="C26" t="n">
-        <v>141</v>
+        <v>141.2</v>
       </c>
       <c r="D26" t="n">
-        <v>141</v>
+        <v>141.2</v>
       </c>
       <c r="E26" t="n">
-        <v>141</v>
+        <v>141.2</v>
       </c>
       <c r="F26" t="n">
-        <v>266.4465</v>
+        <v>3000</v>
       </c>
       <c r="G26" t="n">
-        <v>76302.10350000003</v>
+        <v>85482.53820000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>141</v>
       </c>
       <c r="C27" t="n">
-        <v>141.8</v>
+        <v>141</v>
       </c>
       <c r="D27" t="n">
-        <v>141.9</v>
+        <v>141</v>
       </c>
       <c r="E27" t="n">
-        <v>139.1</v>
+        <v>141</v>
       </c>
       <c r="F27" t="n">
-        <v>13212.0024</v>
+        <v>10494</v>
       </c>
       <c r="G27" t="n">
-        <v>89514.10590000002</v>
+        <v>74988.53820000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>142.2</v>
+        <v>141</v>
       </c>
       <c r="C28" t="n">
-        <v>141.2</v>
+        <v>141</v>
       </c>
       <c r="D28" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E28" t="n">
-        <v>141.2</v>
+        <v>141</v>
       </c>
       <c r="F28" t="n">
-        <v>771.74</v>
+        <v>15514.539</v>
       </c>
       <c r="G28" t="n">
-        <v>88742.36590000002</v>
+        <v>74988.53820000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>140.9</v>
+        <v>141</v>
       </c>
       <c r="C29" t="n">
-        <v>142.9</v>
+        <v>141</v>
       </c>
       <c r="D29" t="n">
-        <v>142.9</v>
+        <v>141</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9</v>
+        <v>141</v>
       </c>
       <c r="F29" t="n">
-        <v>4495.0774</v>
+        <v>200</v>
       </c>
       <c r="G29" t="n">
-        <v>93237.44330000001</v>
+        <v>74988.53820000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>143.1</v>
+        <v>141</v>
       </c>
       <c r="C30" t="n">
-        <v>142.2</v>
+        <v>141</v>
       </c>
       <c r="D30" t="n">
-        <v>143.1</v>
+        <v>141</v>
       </c>
       <c r="E30" t="n">
         <v>141</v>
       </c>
       <c r="F30" t="n">
-        <v>2774.5711</v>
+        <v>2137</v>
       </c>
       <c r="G30" t="n">
-        <v>90462.87220000001</v>
+        <v>74988.53820000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>142.1</v>
+        <v>141</v>
       </c>
       <c r="C31" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E31" t="n">
-        <v>141.7</v>
+        <v>141</v>
       </c>
       <c r="F31" t="n">
-        <v>1450</v>
+        <v>786</v>
       </c>
       <c r="G31" t="n">
-        <v>89012.87220000001</v>
+        <v>74988.53820000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" t="n">
-        <v>142.8</v>
+        <v>141</v>
       </c>
       <c r="D32" t="n">
-        <v>142.8</v>
+        <v>141</v>
       </c>
       <c r="E32" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>231.01</v>
       </c>
       <c r="G32" t="n">
-        <v>89212.87220000001</v>
+        <v>74988.53820000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>142.8</v>
+        <v>140</v>
       </c>
       <c r="C33" t="n">
-        <v>144.7</v>
+        <v>140</v>
       </c>
       <c r="D33" t="n">
-        <v>144.9</v>
+        <v>140</v>
       </c>
       <c r="E33" t="n">
-        <v>142.8</v>
+        <v>140</v>
       </c>
       <c r="F33" t="n">
-        <v>3869.571</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>93082.44320000001</v>
+        <v>74978.53820000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>145.1</v>
+        <v>141</v>
       </c>
       <c r="C34" t="n">
-        <v>145.1</v>
+        <v>141</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1</v>
+        <v>141</v>
       </c>
       <c r="E34" t="n">
-        <v>145.1</v>
+        <v>141</v>
       </c>
       <c r="F34" t="n">
-        <v>1303</v>
+        <v>1591.0705</v>
       </c>
       <c r="G34" t="n">
-        <v>94385.44320000001</v>
+        <v>76569.60870000003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>145</v>
+        <v>141.2</v>
       </c>
       <c r="C35" t="n">
-        <v>145</v>
+        <v>141.2</v>
       </c>
       <c r="D35" t="n">
-        <v>145</v>
+        <v>141.2</v>
       </c>
       <c r="E35" t="n">
-        <v>145</v>
+        <v>141.2</v>
       </c>
       <c r="F35" t="n">
-        <v>1410</v>
+        <v>78</v>
       </c>
       <c r="G35" t="n">
-        <v>92975.44320000001</v>
+        <v>76647.60870000003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>143.5</v>
+        <v>141.2</v>
       </c>
       <c r="C36" t="n">
-        <v>145.4</v>
+        <v>138.2</v>
       </c>
       <c r="D36" t="n">
-        <v>145.4</v>
+        <v>143</v>
       </c>
       <c r="E36" t="n">
-        <v>143.3</v>
+        <v>138.2</v>
       </c>
       <c r="F36" t="n">
-        <v>1197.6599</v>
+        <v>3571.8214</v>
       </c>
       <c r="G36" t="n">
-        <v>94173.10310000001</v>
+        <v>73075.78730000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>145.5</v>
+        <v>139.9</v>
       </c>
       <c r="C37" t="n">
-        <v>145.5</v>
+        <v>145.4</v>
       </c>
       <c r="D37" t="n">
-        <v>145.5</v>
+        <v>145.4</v>
       </c>
       <c r="E37" t="n">
-        <v>145.5</v>
+        <v>139.9</v>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>2615</v>
       </c>
       <c r="G37" t="n">
-        <v>94373.10310000001</v>
+        <v>75690.78730000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>146.4</v>
+        <v>141.7</v>
       </c>
       <c r="C38" t="n">
-        <v>146.4</v>
+        <v>141.9</v>
       </c>
       <c r="D38" t="n">
-        <v>146.4</v>
+        <v>141.9</v>
       </c>
       <c r="E38" t="n">
-        <v>146.4</v>
+        <v>141.7</v>
       </c>
       <c r="F38" t="n">
-        <v>1002.7847</v>
+        <v>1396</v>
       </c>
       <c r="G38" t="n">
-        <v>95375.88780000001</v>
+        <v>74294.78730000003</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>146.4</v>
+        <v>141.2</v>
       </c>
       <c r="C39" t="n">
-        <v>145</v>
+        <v>141.2</v>
       </c>
       <c r="D39" t="n">
-        <v>146.4</v>
+        <v>141.2</v>
       </c>
       <c r="E39" t="n">
-        <v>140.2</v>
+        <v>141.2</v>
       </c>
       <c r="F39" t="n">
-        <v>24892.1521</v>
+        <v>588</v>
       </c>
       <c r="G39" t="n">
-        <v>70483.73570000002</v>
+        <v>73706.78730000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C40" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D40" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E40" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>1018</v>
       </c>
       <c r="G40" t="n">
-        <v>70483.73570000002</v>
+        <v>72688.78730000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C41" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D41" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E41" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>600.1799999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>70683.73570000002</v>
+        <v>72688.78730000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>145.2</v>
+        <v>141</v>
       </c>
       <c r="C42" t="n">
-        <v>145.2</v>
+        <v>141</v>
       </c>
       <c r="D42" t="n">
-        <v>145.2</v>
+        <v>141</v>
       </c>
       <c r="E42" t="n">
-        <v>145.2</v>
+        <v>141</v>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>1050.82</v>
       </c>
       <c r="G42" t="n">
-        <v>70483.73570000002</v>
+        <v>72688.78730000003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>143.1</v>
+        <v>141</v>
       </c>
       <c r="C43" t="n">
-        <v>144.9</v>
+        <v>142</v>
       </c>
       <c r="D43" t="n">
-        <v>144.9</v>
+        <v>142</v>
       </c>
       <c r="E43" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="F43" t="n">
-        <v>7377.4011</v>
+        <v>200</v>
       </c>
       <c r="G43" t="n">
-        <v>63106.33460000002</v>
+        <v>72888.78730000003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>142</v>
+        <v>140.2</v>
       </c>
       <c r="C44" t="n">
-        <v>142</v>
+        <v>139.5</v>
       </c>
       <c r="D44" t="n">
-        <v>142</v>
+        <v>140.9</v>
       </c>
       <c r="E44" t="n">
-        <v>142</v>
+        <v>138.1</v>
       </c>
       <c r="F44" t="n">
-        <v>12803.4142</v>
+        <v>7024.186</v>
       </c>
       <c r="G44" t="n">
-        <v>50302.92040000002</v>
+        <v>65864.60130000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>142</v>
+        <v>140.8</v>
       </c>
       <c r="C45" t="n">
-        <v>143</v>
+        <v>140.8</v>
       </c>
       <c r="D45" t="n">
-        <v>143</v>
+        <v>140.8</v>
       </c>
       <c r="E45" t="n">
-        <v>142</v>
+        <v>140.8</v>
       </c>
       <c r="F45" t="n">
-        <v>753.0001</v>
+        <v>361</v>
       </c>
       <c r="G45" t="n">
-        <v>51055.92050000001</v>
+        <v>66225.60130000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>145</v>
+        <v>141.7</v>
       </c>
       <c r="C46" t="n">
-        <v>141.3</v>
+        <v>141.7</v>
       </c>
       <c r="D46" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E46" t="n">
-        <v>138</v>
+        <v>141.7</v>
       </c>
       <c r="F46" t="n">
-        <v>32017.75</v>
+        <v>12126.793</v>
       </c>
       <c r="G46" t="n">
-        <v>19038.17050000001</v>
+        <v>78352.39430000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>142</v>
+        <v>141.7</v>
       </c>
       <c r="C47" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" t="n">
-        <v>142</v>
+        <v>142.7</v>
       </c>
       <c r="E47" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F47" t="n">
-        <v>389</v>
+        <v>5983.2772</v>
       </c>
       <c r="G47" t="n">
-        <v>19427.17050000001</v>
+        <v>72369.11710000003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>141.1</v>
+        <v>139.1</v>
       </c>
       <c r="C48" t="n">
-        <v>141.1</v>
+        <v>139.1</v>
       </c>
       <c r="D48" t="n">
-        <v>141.1</v>
+        <v>139.1</v>
       </c>
       <c r="E48" t="n">
-        <v>141.1</v>
+        <v>139.1</v>
       </c>
       <c r="F48" t="n">
-        <v>388</v>
+        <v>276</v>
       </c>
       <c r="G48" t="n">
-        <v>19039.17050000001</v>
+        <v>72093.11710000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>141.1</v>
+        <v>139.9</v>
       </c>
       <c r="C49" t="n">
-        <v>141.1</v>
+        <v>139.9</v>
       </c>
       <c r="D49" t="n">
-        <v>141.1</v>
+        <v>139.9</v>
       </c>
       <c r="E49" t="n">
-        <v>141.1</v>
+        <v>139.9</v>
       </c>
       <c r="F49" t="n">
-        <v>389</v>
+        <v>235.8839</v>
       </c>
       <c r="G49" t="n">
-        <v>19039.17050000001</v>
+        <v>72329.00100000003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>144</v>
+        <v>140.6</v>
       </c>
       <c r="C50" t="n">
-        <v>144</v>
+        <v>140.6</v>
       </c>
       <c r="D50" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="E50" t="n">
-        <v>144</v>
+        <v>140.6</v>
       </c>
       <c r="F50" t="n">
-        <v>102</v>
+        <v>3048.0948</v>
       </c>
       <c r="G50" t="n">
-        <v>19141.17050000001</v>
+        <v>75377.09580000004</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>144</v>
+        <v>139.2</v>
       </c>
       <c r="C51" t="n">
-        <v>144</v>
+        <v>140.6</v>
       </c>
       <c r="D51" t="n">
-        <v>145.9</v>
+        <v>140.6</v>
       </c>
       <c r="E51" t="n">
-        <v>143</v>
+        <v>139.2</v>
       </c>
       <c r="F51" t="n">
-        <v>1577</v>
+        <v>791.9457</v>
       </c>
       <c r="G51" t="n">
-        <v>19141.17050000001</v>
+        <v>75377.09580000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="C52" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D52" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E52" t="n">
-        <v>144</v>
+        <v>140.7</v>
       </c>
       <c r="F52" t="n">
-        <v>11.3361</v>
+        <v>758.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>19141.17050000001</v>
+        <v>76136.09570000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>142.1</v>
+        <v>140.1</v>
       </c>
       <c r="C53" t="n">
-        <v>142.1</v>
+        <v>141.9</v>
       </c>
       <c r="D53" t="n">
-        <v>142.1</v>
+        <v>141.9</v>
       </c>
       <c r="E53" t="n">
-        <v>142.1</v>
+        <v>140.1</v>
       </c>
       <c r="F53" t="n">
-        <v>618</v>
+        <v>1247.9611</v>
       </c>
       <c r="G53" t="n">
-        <v>18523.17050000001</v>
+        <v>77384.05680000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>142.1</v>
+        <v>141.7</v>
       </c>
       <c r="C54" t="n">
-        <v>142</v>
+        <v>141.7</v>
       </c>
       <c r="D54" t="n">
-        <v>142.1</v>
+        <v>141.7</v>
       </c>
       <c r="E54" t="n">
-        <v>142</v>
+        <v>141.7</v>
       </c>
       <c r="F54" t="n">
-        <v>1976</v>
+        <v>815.5068</v>
       </c>
       <c r="G54" t="n">
-        <v>16547.17050000001</v>
+        <v>76568.55000000003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>140.1</v>
+        <v>141</v>
       </c>
       <c r="C55" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D55" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E55" t="n">
-        <v>140.1</v>
+        <v>141</v>
       </c>
       <c r="F55" t="n">
-        <v>7740.3561</v>
+        <v>266.4465</v>
       </c>
       <c r="G55" t="n">
-        <v>24287.52660000002</v>
+        <v>76302.10350000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="C56" t="n">
-        <v>141.1</v>
+        <v>141.8</v>
       </c>
       <c r="D56" t="n">
-        <v>141.1</v>
+        <v>141.9</v>
       </c>
       <c r="E56" t="n">
-        <v>141.1</v>
+        <v>139.1</v>
       </c>
       <c r="F56" t="n">
-        <v>309</v>
+        <v>13212.0024</v>
       </c>
       <c r="G56" t="n">
-        <v>23978.52660000002</v>
+        <v>89514.10590000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>141.1</v>
+        <v>142.2</v>
       </c>
       <c r="C57" t="n">
-        <v>141.1</v>
+        <v>141.2</v>
       </c>
       <c r="D57" t="n">
-        <v>141.1</v>
+        <v>143</v>
       </c>
       <c r="E57" t="n">
-        <v>141.1</v>
+        <v>141.2</v>
       </c>
       <c r="F57" t="n">
-        <v>246.2932</v>
+        <v>771.74</v>
       </c>
       <c r="G57" t="n">
-        <v>23978.52660000002</v>
+        <v>88742.36590000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>139.7</v>
+        <v>140.9</v>
       </c>
       <c r="C58" t="n">
-        <v>139.7</v>
+        <v>142.9</v>
       </c>
       <c r="D58" t="n">
-        <v>139.7</v>
+        <v>142.9</v>
       </c>
       <c r="E58" t="n">
-        <v>139.7</v>
+        <v>140.9</v>
       </c>
       <c r="F58" t="n">
-        <v>1464.363</v>
+        <v>4495.0774</v>
       </c>
       <c r="G58" t="n">
-        <v>22514.16360000001</v>
+        <v>93237.44330000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>141</v>
+        <v>143.1</v>
       </c>
       <c r="C59" t="n">
-        <v>140</v>
+        <v>142.2</v>
       </c>
       <c r="D59" t="n">
-        <v>141</v>
+        <v>143.1</v>
       </c>
       <c r="E59" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F59" t="n">
-        <v>2268.0559</v>
+        <v>2774.5711</v>
       </c>
       <c r="G59" t="n">
-        <v>24782.21950000001</v>
+        <v>90462.87220000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,35 +2526,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="C60" t="n">
         <v>142</v>
       </c>
-      <c r="C60" t="n">
-        <v>141</v>
-      </c>
       <c r="D60" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E60" t="n">
-        <v>141</v>
+        <v>141.7</v>
       </c>
       <c r="F60" t="n">
-        <v>176.2622</v>
+        <v>1450</v>
       </c>
       <c r="G60" t="n">
-        <v>24958.48170000001</v>
+        <v>89012.87220000001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>140</v>
-      </c>
-      <c r="K60" t="n">
-        <v>140</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
@@ -2566,40 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" t="n">
-        <v>141</v>
+        <v>142.8</v>
       </c>
       <c r="D61" t="n">
-        <v>141</v>
+        <v>142.8</v>
       </c>
       <c r="E61" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F61" t="n">
-        <v>13307.8083</v>
+        <v>200</v>
       </c>
       <c r="G61" t="n">
-        <v>24958.48170000001</v>
+        <v>89212.87220000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>141</v>
-      </c>
-      <c r="K61" t="n">
-        <v>140</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2610,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>141</v>
+        <v>142.8</v>
       </c>
       <c r="C62" t="n">
-        <v>141</v>
+        <v>144.7</v>
       </c>
       <c r="D62" t="n">
-        <v>141</v>
+        <v>144.9</v>
       </c>
       <c r="E62" t="n">
-        <v>141</v>
+        <v>142.8</v>
       </c>
       <c r="F62" t="n">
-        <v>3458.667</v>
+        <v>3869.571</v>
       </c>
       <c r="G62" t="n">
-        <v>24958.48170000001</v>
+        <v>93082.44320000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>140</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2652,35 +2634,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>141</v>
+        <v>145.1</v>
       </c>
       <c r="C63" t="n">
-        <v>141</v>
+        <v>145.1</v>
       </c>
       <c r="D63" t="n">
-        <v>141</v>
+        <v>145.1</v>
       </c>
       <c r="E63" t="n">
-        <v>141</v>
+        <v>145.1</v>
       </c>
       <c r="F63" t="n">
-        <v>1971.432</v>
+        <v>1303</v>
       </c>
       <c r="G63" t="n">
-        <v>24958.48170000001</v>
+        <v>94385.44320000001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>141</v>
-      </c>
-      <c r="K63" t="n">
-        <v>141</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
@@ -2692,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C64" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D64" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E64" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F64" t="n">
-        <v>420.2228</v>
+        <v>1410</v>
       </c>
       <c r="G64" t="n">
-        <v>24958.48170000001</v>
+        <v>92975.44320000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2716,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>141</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2734,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>140</v>
+        <v>143.5</v>
       </c>
       <c r="C65" t="n">
-        <v>140</v>
+        <v>145.4</v>
       </c>
       <c r="D65" t="n">
-        <v>140</v>
+        <v>145.4</v>
       </c>
       <c r="E65" t="n">
-        <v>140</v>
+        <v>143.3</v>
       </c>
       <c r="F65" t="n">
-        <v>139</v>
+        <v>1197.6599</v>
       </c>
       <c r="G65" t="n">
-        <v>24819.48170000001</v>
+        <v>94173.10310000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2758,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>141</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2776,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>140</v>
+        <v>145.5</v>
       </c>
       <c r="C66" t="n">
-        <v>139.9</v>
+        <v>145.5</v>
       </c>
       <c r="D66" t="n">
-        <v>140.9</v>
+        <v>145.5</v>
       </c>
       <c r="E66" t="n">
-        <v>139.9</v>
+        <v>145.5</v>
       </c>
       <c r="F66" t="n">
-        <v>1430.2589</v>
+        <v>200</v>
       </c>
       <c r="G66" t="n">
-        <v>23389.22280000001</v>
+        <v>94373.10310000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2812,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>141</v>
+        <v>146.4</v>
       </c>
       <c r="C67" t="n">
-        <v>139.7</v>
+        <v>146.4</v>
       </c>
       <c r="D67" t="n">
-        <v>141</v>
+        <v>146.4</v>
       </c>
       <c r="E67" t="n">
-        <v>139.7</v>
+        <v>146.4</v>
       </c>
       <c r="F67" t="n">
-        <v>101.0011</v>
+        <v>1002.7847</v>
       </c>
       <c r="G67" t="n">
-        <v>23288.22170000001</v>
+        <v>95375.88780000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2848,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>139.9</v>
+        <v>146.4</v>
       </c>
       <c r="C68" t="n">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="D68" t="n">
-        <v>139.9</v>
+        <v>146.4</v>
       </c>
       <c r="E68" t="n">
-        <v>139.8</v>
+        <v>140.2</v>
       </c>
       <c r="F68" t="n">
-        <v>5103.126</v>
+        <v>24892.1521</v>
       </c>
       <c r="G68" t="n">
-        <v>28391.34770000001</v>
+        <v>70483.73570000002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2884,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="C69" t="n">
-        <v>141.8</v>
+        <v>145</v>
       </c>
       <c r="D69" t="n">
-        <v>141.8</v>
+        <v>145</v>
       </c>
       <c r="E69" t="n">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="F69" t="n">
-        <v>8054.689</v>
+        <v>200</v>
       </c>
       <c r="G69" t="n">
-        <v>36446.03670000001</v>
+        <v>70483.73570000002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2920,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C70" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D70" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E70" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F70" t="n">
-        <v>90.62820000000001</v>
+        <v>200</v>
       </c>
       <c r="G70" t="n">
-        <v>36355.40850000001</v>
+        <v>70683.73570000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2956,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>141</v>
+        <v>145.2</v>
       </c>
       <c r="C71" t="n">
-        <v>141</v>
+        <v>145.2</v>
       </c>
       <c r="D71" t="n">
-        <v>141</v>
+        <v>145.2</v>
       </c>
       <c r="E71" t="n">
-        <v>141</v>
+        <v>145.2</v>
       </c>
       <c r="F71" t="n">
-        <v>93.8233</v>
+        <v>200</v>
       </c>
       <c r="G71" t="n">
-        <v>36355.40850000001</v>
+        <v>70483.73570000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2992,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>141</v>
+        <v>143.1</v>
       </c>
       <c r="C72" t="n">
-        <v>141</v>
+        <v>144.9</v>
       </c>
       <c r="D72" t="n">
-        <v>141</v>
+        <v>144.9</v>
       </c>
       <c r="E72" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="F72" t="n">
-        <v>85.00239999999999</v>
+        <v>7377.4011</v>
       </c>
       <c r="G72" t="n">
-        <v>36355.40850000001</v>
+        <v>63106.33460000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3028,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C73" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D73" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E73" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F73" t="n">
-        <v>265.5535</v>
+        <v>12803.4142</v>
       </c>
       <c r="G73" t="n">
-        <v>36355.40850000001</v>
+        <v>50302.92040000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3064,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C74" t="n">
-        <v>142.1</v>
+        <v>143</v>
       </c>
       <c r="D74" t="n">
-        <v>142.4</v>
+        <v>143</v>
       </c>
       <c r="E74" t="n">
-        <v>140.8</v>
+        <v>142</v>
       </c>
       <c r="F74" t="n">
-        <v>1165.0813</v>
+        <v>753.0001</v>
       </c>
       <c r="G74" t="n">
-        <v>37520.48980000001</v>
+        <v>51055.92050000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3100,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>141.5</v>
+        <v>145</v>
       </c>
       <c r="C75" t="n">
-        <v>141.5</v>
+        <v>141.3</v>
       </c>
       <c r="D75" t="n">
-        <v>141.5</v>
+        <v>145</v>
       </c>
       <c r="E75" t="n">
-        <v>141.5</v>
+        <v>138</v>
       </c>
       <c r="F75" t="n">
-        <v>2577</v>
+        <v>32017.75</v>
       </c>
       <c r="G75" t="n">
-        <v>34943.48980000001</v>
+        <v>19038.17050000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3136,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C76" t="n">
-        <v>141.6</v>
+        <v>142</v>
       </c>
       <c r="D76" t="n">
-        <v>141.6</v>
+        <v>142</v>
       </c>
       <c r="E76" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F76" t="n">
-        <v>403.8412</v>
+        <v>389</v>
       </c>
       <c r="G76" t="n">
-        <v>35347.33100000001</v>
+        <v>19427.17050000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3172,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="C77" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="D77" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="E77" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="F77" t="n">
-        <v>304.875</v>
+        <v>388</v>
       </c>
       <c r="G77" t="n">
-        <v>35652.20600000001</v>
+        <v>19039.17050000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3208,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="C78" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="D78" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="E78" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="F78" t="n">
-        <v>70.22880000000001</v>
+        <v>389</v>
       </c>
       <c r="G78" t="n">
-        <v>35652.20600000001</v>
+        <v>19039.17050000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3244,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C79" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D79" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E79" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F79" t="n">
-        <v>87.64870000000001</v>
+        <v>102</v>
       </c>
       <c r="G79" t="n">
-        <v>35652.20600000001</v>
+        <v>19141.17050000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3280,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>141.1</v>
+        <v>144</v>
       </c>
       <c r="C80" t="n">
-        <v>141.1</v>
+        <v>144</v>
       </c>
       <c r="D80" t="n">
-        <v>141.1</v>
+        <v>145.9</v>
       </c>
       <c r="E80" t="n">
-        <v>141.1</v>
+        <v>143</v>
       </c>
       <c r="F80" t="n">
-        <v>162.1397</v>
+        <v>1577</v>
       </c>
       <c r="G80" t="n">
-        <v>35490.06630000001</v>
+        <v>19141.17050000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3316,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C81" t="n">
-        <v>140.8</v>
+        <v>144</v>
       </c>
       <c r="D81" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E81" t="n">
-        <v>140.8</v>
+        <v>144</v>
       </c>
       <c r="F81" t="n">
-        <v>1418.7779</v>
+        <v>11.3361</v>
       </c>
       <c r="G81" t="n">
-        <v>34071.28840000001</v>
+        <v>19141.17050000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3352,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>141</v>
+        <v>142.1</v>
       </c>
       <c r="C82" t="n">
-        <v>140.9</v>
+        <v>142.1</v>
       </c>
       <c r="D82" t="n">
-        <v>141</v>
+        <v>142.1</v>
       </c>
       <c r="E82" t="n">
-        <v>140.9</v>
+        <v>142.1</v>
       </c>
       <c r="F82" t="n">
-        <v>1321</v>
+        <v>618</v>
       </c>
       <c r="G82" t="n">
-        <v>35392.28840000001</v>
+        <v>18523.17050000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3388,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>141</v>
+        <v>142.1</v>
       </c>
       <c r="C83" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D83" t="n">
-        <v>141</v>
+        <v>142.1</v>
       </c>
       <c r="E83" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F83" t="n">
-        <v>684</v>
+        <v>1976</v>
       </c>
       <c r="G83" t="n">
-        <v>36076.28840000001</v>
+        <v>16547.17050000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3424,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>141</v>
+        <v>140.1</v>
       </c>
       <c r="C84" t="n">
-        <v>140.7</v>
+        <v>144</v>
       </c>
       <c r="D84" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E84" t="n">
-        <v>140.7</v>
+        <v>140.1</v>
       </c>
       <c r="F84" t="n">
-        <v>180.7129</v>
+        <v>7740.3561</v>
       </c>
       <c r="G84" t="n">
-        <v>35895.57550000001</v>
+        <v>24287.52660000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3460,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="C85" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="D85" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="E85" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="F85" t="n">
-        <v>81.4265</v>
+        <v>309</v>
       </c>
       <c r="G85" t="n">
-        <v>35977.00200000001</v>
+        <v>23978.52660000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3496,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="C86" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="D86" t="n">
-        <v>142</v>
+        <v>141.1</v>
       </c>
       <c r="E86" t="n">
-        <v>139.8</v>
+        <v>141.1</v>
       </c>
       <c r="F86" t="n">
-        <v>2254.4503</v>
+        <v>246.2932</v>
       </c>
       <c r="G86" t="n">
-        <v>35977.00200000001</v>
+        <v>23978.52660000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3532,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>141.5</v>
+        <v>139.7</v>
       </c>
       <c r="C87" t="n">
-        <v>141.5</v>
+        <v>139.7</v>
       </c>
       <c r="D87" t="n">
-        <v>141.5</v>
+        <v>139.7</v>
       </c>
       <c r="E87" t="n">
-        <v>141.5</v>
+        <v>139.7</v>
       </c>
       <c r="F87" t="n">
-        <v>35.5831</v>
+        <v>1464.363</v>
       </c>
       <c r="G87" t="n">
-        <v>36012.58510000002</v>
+        <v>22514.16360000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3571,28 +3537,32 @@
         <v>141</v>
       </c>
       <c r="C88" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D88" t="n">
         <v>141</v>
       </c>
       <c r="E88" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F88" t="n">
-        <v>83.7431</v>
+        <v>2268.0559</v>
       </c>
       <c r="G88" t="n">
-        <v>35928.84200000002</v>
+        <v>24782.21950000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="K88" t="n">
+        <v>139.7</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3604,22 +3574,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>139.8</v>
+        <v>142</v>
       </c>
       <c r="C89" t="n">
-        <v>139.8</v>
+        <v>141</v>
       </c>
       <c r="D89" t="n">
-        <v>139.8</v>
+        <v>142</v>
       </c>
       <c r="E89" t="n">
-        <v>139.8</v>
+        <v>141</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>176.2622</v>
       </c>
       <c r="G89" t="n">
-        <v>35923.84200000002</v>
+        <v>24958.48170000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3628,8 +3598,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3640,22 +3616,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C90" t="n">
-        <v>143.7</v>
+        <v>141</v>
       </c>
       <c r="D90" t="n">
-        <v>143.7</v>
+        <v>141</v>
       </c>
       <c r="E90" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F90" t="n">
-        <v>284</v>
+        <v>13307.8083</v>
       </c>
       <c r="G90" t="n">
-        <v>36207.84200000002</v>
+        <v>24958.48170000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3664,8 +3640,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3658,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>140.4</v>
+        <v>141</v>
       </c>
       <c r="C91" t="n">
-        <v>140.4</v>
+        <v>141</v>
       </c>
       <c r="D91" t="n">
-        <v>140.4</v>
+        <v>141</v>
       </c>
       <c r="E91" t="n">
-        <v>140.4</v>
+        <v>141</v>
       </c>
       <c r="F91" t="n">
-        <v>278</v>
+        <v>3458.667</v>
       </c>
       <c r="G91" t="n">
-        <v>35929.84200000002</v>
+        <v>24958.48170000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3712,31 +3694,35 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>141.4</v>
+        <v>141</v>
       </c>
       <c r="C92" t="n">
-        <v>141.4</v>
+        <v>141</v>
       </c>
       <c r="D92" t="n">
-        <v>141.4</v>
+        <v>141</v>
       </c>
       <c r="E92" t="n">
-        <v>141.4</v>
+        <v>141</v>
       </c>
       <c r="F92" t="n">
-        <v>419</v>
+        <v>1971.432</v>
       </c>
       <c r="G92" t="n">
-        <v>36348.84200000002</v>
+        <v>24958.48170000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>141</v>
+      </c>
+      <c r="K92" t="n">
+        <v>141</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
@@ -3751,19 +3737,19 @@
         <v>141</v>
       </c>
       <c r="C93" t="n">
-        <v>139.8</v>
+        <v>141</v>
       </c>
       <c r="D93" t="n">
         <v>141</v>
       </c>
       <c r="E93" t="n">
-        <v>139.8</v>
+        <v>141</v>
       </c>
       <c r="F93" t="n">
-        <v>759.2575000000001</v>
+        <v>420.2228</v>
       </c>
       <c r="G93" t="n">
-        <v>35589.58450000002</v>
+        <v>24958.48170000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3772,8 +3758,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>141</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3784,22 +3776,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" t="n">
-        <v>141.1</v>
+        <v>140</v>
       </c>
       <c r="D94" t="n">
-        <v>141.1</v>
+        <v>140</v>
       </c>
       <c r="E94" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F94" t="n">
-        <v>306.0918</v>
+        <v>139</v>
       </c>
       <c r="G94" t="n">
-        <v>35895.67630000002</v>
+        <v>24819.48170000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3808,8 +3800,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>141</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3820,32 +3818,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>142.5</v>
+        <v>140</v>
       </c>
       <c r="C95" t="n">
-        <v>142.5</v>
+        <v>139.9</v>
       </c>
       <c r="D95" t="n">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="E95" t="n">
-        <v>142.5</v>
+        <v>139.9</v>
       </c>
       <c r="F95" t="n">
-        <v>231</v>
+        <v>1430.2589</v>
       </c>
       <c r="G95" t="n">
-        <v>36126.67630000002</v>
+        <v>23389.22280000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>140</v>
+      </c>
+      <c r="K95" t="n">
+        <v>141</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3856,32 +3862,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" t="n">
-        <v>142</v>
+        <v>139.7</v>
       </c>
       <c r="D96" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" t="n">
-        <v>142</v>
+        <v>139.7</v>
       </c>
       <c r="F96" t="n">
-        <v>231</v>
+        <v>101.0011</v>
       </c>
       <c r="G96" t="n">
-        <v>35895.67630000002</v>
+        <v>23288.22170000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="K96" t="n">
+        <v>141</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3892,32 +3906,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>141</v>
+        <v>139.9</v>
       </c>
       <c r="C97" t="n">
-        <v>140.2</v>
+        <v>139.8</v>
       </c>
       <c r="D97" t="n">
-        <v>141.9</v>
+        <v>139.9</v>
       </c>
       <c r="E97" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5103.126</v>
+      </c>
+      <c r="G97" t="n">
+        <v>28391.34770000001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>139.7</v>
       </c>
-      <c r="F97" t="n">
-        <v>12793.397</v>
-      </c>
-      <c r="G97" t="n">
-        <v>23102.27930000002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>141</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3928,32 +3950,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>140.8</v>
+        <v>139.8</v>
       </c>
       <c r="C98" t="n">
-        <v>140.7</v>
+        <v>141.8</v>
       </c>
       <c r="D98" t="n">
-        <v>141.9</v>
+        <v>141.8</v>
       </c>
       <c r="E98" t="n">
-        <v>140.7</v>
+        <v>139.8</v>
       </c>
       <c r="F98" t="n">
-        <v>2580</v>
+        <v>8054.689</v>
       </c>
       <c r="G98" t="n">
-        <v>25682.27930000002</v>
+        <v>36446.03670000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="K98" t="n">
+        <v>141</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3964,32 +3994,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="C99" t="n">
         <v>141</v>
       </c>
       <c r="D99" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="E99" t="n">
         <v>141</v>
       </c>
       <c r="F99" t="n">
-        <v>1667.1371</v>
+        <v>90.62820000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>27349.41640000002</v>
+        <v>36355.40850000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="K99" t="n">
+        <v>141</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4000,32 +4038,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="C100" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="D100" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="E100" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="F100" t="n">
-        <v>83</v>
+        <v>93.8233</v>
       </c>
       <c r="G100" t="n">
-        <v>27432.41640000002</v>
+        <v>36355.40850000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>141</v>
+      </c>
+      <c r="K100" t="n">
+        <v>141</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4036,32 +4082,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>141.2</v>
+        <v>141</v>
       </c>
       <c r="C101" t="n">
-        <v>141.2</v>
+        <v>141</v>
       </c>
       <c r="D101" t="n">
-        <v>141.2</v>
+        <v>141</v>
       </c>
       <c r="E101" t="n">
-        <v>141.2</v>
+        <v>141</v>
       </c>
       <c r="F101" t="n">
-        <v>615.0876</v>
+        <v>85.00239999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>28047.50400000002</v>
+        <v>36355.40850000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>141</v>
+      </c>
+      <c r="K101" t="n">
+        <v>141</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4084,20 +4138,28 @@
         <v>141</v>
       </c>
       <c r="F102" t="n">
-        <v>702.2106</v>
+        <v>265.5535</v>
       </c>
       <c r="G102" t="n">
-        <v>27345.29340000002</v>
+        <v>36355.40850000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>141</v>
+      </c>
+      <c r="K102" t="n">
+        <v>141</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4108,32 +4170,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="C103" t="n">
-        <v>141.1</v>
+        <v>142.1</v>
       </c>
       <c r="D103" t="n">
-        <v>141.1</v>
+        <v>142.4</v>
       </c>
       <c r="E103" t="n">
-        <v>141.1</v>
+        <v>140.8</v>
       </c>
       <c r="F103" t="n">
-        <v>111</v>
+        <v>1165.0813</v>
       </c>
       <c r="G103" t="n">
-        <v>27456.29340000002</v>
+        <v>37520.48980000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>141</v>
+      </c>
+      <c r="K103" t="n">
+        <v>141</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4144,32 +4214,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>141.1</v>
+        <v>141.5</v>
       </c>
       <c r="C104" t="n">
-        <v>141.1</v>
+        <v>141.5</v>
       </c>
       <c r="D104" t="n">
-        <v>141.1</v>
+        <v>141.5</v>
       </c>
       <c r="E104" t="n">
-        <v>141.1</v>
+        <v>141.5</v>
       </c>
       <c r="F104" t="n">
-        <v>2626.8218</v>
+        <v>2577</v>
       </c>
       <c r="G104" t="n">
-        <v>27456.29340000002</v>
+        <v>34943.48980000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>141</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4180,22 +4258,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>141.1</v>
+        <v>141</v>
       </c>
       <c r="C105" t="n">
-        <v>140.3</v>
+        <v>141.6</v>
       </c>
       <c r="D105" t="n">
-        <v>141.1</v>
+        <v>141.6</v>
       </c>
       <c r="E105" t="n">
-        <v>140.3</v>
+        <v>141</v>
       </c>
       <c r="F105" t="n">
-        <v>11569.9946</v>
+        <v>403.8412</v>
       </c>
       <c r="G105" t="n">
-        <v>15886.29880000002</v>
+        <v>35347.33100000001</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4204,12 +4282,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+        <v>141.5</v>
+      </c>
+      <c r="K105" t="n">
+        <v>141</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4222,31 +4302,35 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>139.6</v>
+        <v>142</v>
       </c>
       <c r="C106" t="n">
-        <v>139.6</v>
+        <v>142</v>
       </c>
       <c r="D106" t="n">
-        <v>139.6</v>
+        <v>142</v>
       </c>
       <c r="E106" t="n">
-        <v>139.6</v>
+        <v>142</v>
       </c>
       <c r="F106" t="n">
-        <v>845.6892</v>
+        <v>304.875</v>
       </c>
       <c r="G106" t="n">
-        <v>15040.60960000002</v>
+        <v>35652.20600000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="K106" t="n">
+        <v>141</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,22 +4346,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C107" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D107" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E107" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>70.22880000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>15240.60960000002</v>
+        <v>35652.20600000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4286,7 +4370,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>141</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4302,40 +4388,1278 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>142</v>
+      </c>
+      <c r="C108" t="n">
+        <v>142</v>
+      </c>
+      <c r="D108" t="n">
+        <v>142</v>
+      </c>
+      <c r="E108" t="n">
+        <v>142</v>
+      </c>
+      <c r="F108" t="n">
+        <v>87.64870000000001</v>
+      </c>
+      <c r="G108" t="n">
+        <v>35652.20600000001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>141</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>162.1397</v>
+      </c>
+      <c r="G109" t="n">
+        <v>35490.06630000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>141</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>141</v>
+      </c>
+      <c r="C110" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>141</v>
+      </c>
+      <c r="E110" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1418.7779</v>
+      </c>
+      <c r="G110" t="n">
+        <v>34071.28840000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>141</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>141</v>
+      </c>
+      <c r="C111" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>141</v>
+      </c>
+      <c r="E111" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1321</v>
+      </c>
+      <c r="G111" t="n">
+        <v>35392.28840000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>141</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>141</v>
+      </c>
+      <c r="C112" t="n">
+        <v>141</v>
+      </c>
+      <c r="D112" t="n">
+        <v>141</v>
+      </c>
+      <c r="E112" t="n">
+        <v>141</v>
+      </c>
+      <c r="F112" t="n">
+        <v>684</v>
+      </c>
+      <c r="G112" t="n">
+        <v>36076.28840000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="K112" t="n">
+        <v>141</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>141</v>
+      </c>
+      <c r="C113" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>141</v>
+      </c>
+      <c r="E113" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="F113" t="n">
+        <v>180.7129</v>
+      </c>
+      <c r="G113" t="n">
+        <v>35895.57550000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>141</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>141</v>
+      </c>
+      <c r="C114" t="n">
+        <v>141</v>
+      </c>
+      <c r="D114" t="n">
+        <v>141</v>
+      </c>
+      <c r="E114" t="n">
+        <v>141</v>
+      </c>
+      <c r="F114" t="n">
+        <v>81.4265</v>
+      </c>
+      <c r="G114" t="n">
+        <v>35977.00200000001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>141</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>142</v>
+      </c>
+      <c r="C115" t="n">
+        <v>141</v>
+      </c>
+      <c r="D115" t="n">
+        <v>142</v>
+      </c>
+      <c r="E115" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2254.4503</v>
+      </c>
+      <c r="G115" t="n">
+        <v>35977.00200000001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>141</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>35.5831</v>
+      </c>
+      <c r="G116" t="n">
+        <v>36012.58510000002</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>141</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>141</v>
+      </c>
+      <c r="C117" t="n">
+        <v>141</v>
+      </c>
+      <c r="D117" t="n">
+        <v>141</v>
+      </c>
+      <c r="E117" t="n">
+        <v>141</v>
+      </c>
+      <c r="F117" t="n">
+        <v>83.7431</v>
+      </c>
+      <c r="G117" t="n">
+        <v>35928.84200000002</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>141</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C118" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>35923.84200000002</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>141</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
         <v>140</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C119" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>140</v>
+      </c>
+      <c r="F119" t="n">
+        <v>284</v>
+      </c>
+      <c r="G119" t="n">
+        <v>36207.84200000002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>141</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>278</v>
+      </c>
+      <c r="G120" t="n">
+        <v>35929.84200000002</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>141</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>419</v>
+      </c>
+      <c r="G121" t="n">
+        <v>36348.84200000002</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>141</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>141</v>
+      </c>
+      <c r="C122" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>141</v>
+      </c>
+      <c r="E122" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>759.2575000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>35589.58450000002</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>141</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>141</v>
+      </c>
+      <c r="C123" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>141</v>
+      </c>
+      <c r="F123" t="n">
+        <v>306.0918</v>
+      </c>
+      <c r="G123" t="n">
+        <v>35895.67630000002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>141</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>231</v>
+      </c>
+      <c r="G124" t="n">
+        <v>36126.67630000002</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>141</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>142</v>
+      </c>
+      <c r="C125" t="n">
+        <v>142</v>
+      </c>
+      <c r="D125" t="n">
+        <v>142</v>
+      </c>
+      <c r="E125" t="n">
+        <v>142</v>
+      </c>
+      <c r="F125" t="n">
+        <v>231</v>
+      </c>
+      <c r="G125" t="n">
+        <v>35895.67630000002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>141</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>141</v>
+      </c>
+      <c r="C126" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12793.397</v>
+      </c>
+      <c r="G126" t="n">
+        <v>23102.27930000002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>141</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="C127" t="n">
         <v>140.7</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D127" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="E127" t="n">
         <v>140.7</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F127" t="n">
+        <v>2580</v>
+      </c>
+      <c r="G127" t="n">
+        <v>25682.27930000002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>141</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>141</v>
+      </c>
+      <c r="D128" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>141</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1667.1371</v>
+      </c>
+      <c r="G128" t="n">
+        <v>27349.41640000002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>141</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>83</v>
+      </c>
+      <c r="G129" t="n">
+        <v>27432.41640000002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>141</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>615.0876</v>
+      </c>
+      <c r="G130" t="n">
+        <v>28047.50400000002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>141</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>141</v>
+      </c>
+      <c r="C131" t="n">
+        <v>141</v>
+      </c>
+      <c r="D131" t="n">
+        <v>141</v>
+      </c>
+      <c r="E131" t="n">
+        <v>141</v>
+      </c>
+      <c r="F131" t="n">
+        <v>702.2106</v>
+      </c>
+      <c r="G131" t="n">
+        <v>27345.29340000002</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="K131" t="n">
+        <v>141</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>111</v>
+      </c>
+      <c r="G132" t="n">
+        <v>27456.29340000002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>141</v>
+      </c>
+      <c r="K132" t="n">
+        <v>141</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2626.8218</v>
+      </c>
+      <c r="G133" t="n">
+        <v>27456.29340000002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>141</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11569.9946</v>
+      </c>
+      <c r="G134" t="n">
+        <v>15886.29880000002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>141</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>845.6892</v>
+      </c>
+      <c r="G135" t="n">
+        <v>15040.60960000002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="K135" t="n">
+        <v>141</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>140</v>
+      </c>
+      <c r="C136" t="n">
+        <v>140</v>
+      </c>
+      <c r="D136" t="n">
+        <v>140</v>
+      </c>
+      <c r="E136" t="n">
+        <v>140</v>
+      </c>
+      <c r="F136" t="n">
+        <v>200</v>
+      </c>
+      <c r="G136" t="n">
+        <v>15240.60960000002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="K136" t="n">
+        <v>141</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>140</v>
+      </c>
+      <c r="C137" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="E137" t="n">
         <v>139.7</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F137" t="n">
         <v>759</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G137" t="n">
         <v>15999.60960000002</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>140</v>
+      </c>
+      <c r="K137" t="n">
+        <v>141</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest RDN.xlsx
+++ b/BackTest/2020-01-21 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>100324.4878</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>102136.2152</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>101964.2152</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>99478.35830000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>99478.35830000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>99397.17070000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>99397.17070000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>98189.17080000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>98189.17080000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>95471.17090000003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>74988.53820000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>76569.60870000003</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>72688.78730000003</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,21 @@
         <v>90462.87220000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>142.9</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2373,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2410,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2447,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2484,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2521,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2558,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2595,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2632,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2669,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2706,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2743,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2780,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2817,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2854,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2891,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2928,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2965,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3002,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3039,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3076,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3113,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3150,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3187,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3224,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3261,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3298,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3335,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3372,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,22 +3407,19 @@
         <v>24782.21950000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K88" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3594,22 +3446,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3636,22 +3483,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3678,16 +3520,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3712,22 +3555,19 @@
         <v>24958.48170000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>141</v>
-      </c>
-      <c r="K92" t="n">
-        <v>141</v>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3752,24 +3592,21 @@
         <v>24958.48170000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>141</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3794,24 +3631,21 @@
         <v>24819.48170000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>141</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3836,26 +3670,21 @@
         <v>23389.22280000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>140</v>
       </c>
-      <c r="K95" t="n">
-        <v>141</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3880,26 +3709,21 @@
         <v>23288.22170000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
         <v>139.9</v>
       </c>
-      <c r="K96" t="n">
-        <v>141</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3924,26 +3748,21 @@
         <v>28391.34770000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>139.7</v>
       </c>
-      <c r="K97" t="n">
-        <v>141</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3968,26 +3787,21 @@
         <v>36446.03670000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
         <v>139.8</v>
       </c>
-      <c r="K98" t="n">
-        <v>141</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4012,26 +3826,21 @@
         <v>36355.40850000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>141.8</v>
       </c>
-      <c r="K99" t="n">
-        <v>141</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4056,26 +3865,19 @@
         <v>36355.40850000001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>141</v>
-      </c>
-      <c r="K100" t="n">
-        <v>141</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4100,26 +3902,21 @@
         <v>36355.40850000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>141</v>
-      </c>
-      <c r="K101" t="n">
-        <v>141</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4144,26 +3941,21 @@
         <v>36355.40850000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>141</v>
-      </c>
-      <c r="K102" t="n">
-        <v>141</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4188,26 +3980,21 @@
         <v>37520.48980000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>141</v>
-      </c>
-      <c r="K103" t="n">
-        <v>141</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4232,26 +4019,21 @@
         <v>34943.48980000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
         <v>142.1</v>
       </c>
-      <c r="K104" t="n">
-        <v>141</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4276,26 +4058,19 @@
         <v>35347.33100000001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>141</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4320,26 +4095,21 @@
         <v>35652.20600000001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
         <v>141.6</v>
       </c>
-      <c r="K106" t="n">
-        <v>141</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4364,24 +4134,21 @@
         <v>35652.20600000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>141</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4408,22 +4175,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>141</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4450,22 +4212,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>141</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4492,22 +4249,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>141</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4534,22 +4286,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>141</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4574,26 +4321,21 @@
         <v>36076.28840000001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
         <v>140.9</v>
       </c>
-      <c r="K112" t="n">
-        <v>141</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4618,24 +4360,21 @@
         <v>35895.57550000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>141</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4662,22 +4401,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>141</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4702,24 +4436,21 @@
         <v>35977.00200000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>141</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4746,22 +4477,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>141</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4788,22 +4514,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>141</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4828,24 +4549,21 @@
         <v>35923.84200000002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>141</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4872,22 +4590,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>141</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4914,22 +4627,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>141</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4956,22 +4664,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>141</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4998,22 +4701,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>141</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5038,24 +4736,21 @@
         <v>35895.67630000002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>139.8</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>141</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5080,24 +4775,21 @@
         <v>36126.67630000002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>141.1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>141</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5124,22 +4816,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>141</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5164,24 +4851,21 @@
         <v>23102.27930000002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>141</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5208,22 +4892,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>141</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5250,22 +4929,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>141</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5292,22 +4966,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>141</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5334,24 +5003,17 @@
       <c r="H130" t="n">
         <v>1</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K130" t="n">
-        <v>141</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5378,24 +5040,17 @@
       <c r="H131" t="n">
         <v>1</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="K131" t="n">
-        <v>141</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5422,24 +5077,17 @@
       <c r="H132" t="n">
         <v>1</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>141</v>
-      </c>
-      <c r="K132" t="n">
-        <v>141</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5466,24 +5114,17 @@
       <c r="H133" t="n">
         <v>1</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K133" t="n">
-        <v>141</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5510,24 +5151,17 @@
       <c r="H134" t="n">
         <v>1</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>141</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5554,24 +5188,17 @@
       <c r="H135" t="n">
         <v>1</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>140.3</v>
-      </c>
-      <c r="K135" t="n">
-        <v>141</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5598,24 +5225,17 @@
       <c r="H136" t="n">
         <v>1</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="K136" t="n">
-        <v>141</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5642,26 +5262,19 @@
       <c r="H137" t="n">
         <v>1</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>140</v>
-      </c>
-      <c r="K137" t="n">
-        <v>141</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest RDN.xlsx
+++ b/BackTest/2020-01-21 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>100730.8485</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>101396.1845</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>100452.5545</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>100974.5545</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>100056.9588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>99802.88260000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>99802.88260000003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>99802.88260000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>102207.8826</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>100066.9178</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>100324.4878</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>100324.4878</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>100797.5799</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>102136.2152</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>101964.2152</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>99478.35830000002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>99478.35830000002</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>99397.17070000002</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>99397.17070000002</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>98189.17080000002</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>98189.17080000002</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>95471.17090000003</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>74988.53820000002</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>76569.60870000003</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>72688.78730000003</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2332,17 +2332,11 @@
         <v>90462.87220000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>142.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2375,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2412,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2449,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2486,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2523,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2560,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2597,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2634,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2671,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2708,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2745,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2782,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2819,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2856,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2930,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2967,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3004,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3078,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3115,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3152,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3189,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3226,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3263,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3300,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3337,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3374,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3411,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3444,15 +3322,15 @@
         <v>24958.48170000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>140</v>
+      </c>
+      <c r="J89" t="n">
+        <v>140</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3481,13 +3359,17 @@
         <v>24958.48170000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>141</v>
+      </c>
+      <c r="J90" t="n">
+        <v>140</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3518,13 +3400,17 @@
         <v>24958.48170000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>141</v>
+      </c>
+      <c r="J91" t="n">
+        <v>140</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3555,15 +3441,15 @@
         <v>24958.48170000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>141</v>
+      </c>
+      <c r="J92" t="n">
+        <v>141</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3592,15 +3478,17 @@
         <v>24958.48170000001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>141</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>141</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3631,15 +3519,17 @@
         <v>24819.48170000001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>141</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>141</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3670,15 +3560,17 @@
         <v>23389.22280000001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>140</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>141</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3709,12 +3601,14 @@
         <v>23288.22170000001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>139.9</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>141</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3748,12 +3642,14 @@
         <v>28391.34770000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>139.7</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>141</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,12 +3683,14 @@
         <v>36446.03670000001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>139.8</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>141</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,12 +3724,14 @@
         <v>36355.40850000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>141.8</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>141</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3868,7 +3768,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>141</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3902,12 +3804,12 @@
         <v>36355.40850000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>141</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>141</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3941,12 +3843,14 @@
         <v>36355.40850000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>141</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>141</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3980,12 +3884,14 @@
         <v>37520.48980000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>141</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>141</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4019,12 +3925,14 @@
         <v>34943.48980000001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>142.1</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>141</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4061,7 +3969,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>141</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,12 +4005,12 @@
         <v>35652.20600000001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>141</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,12 +4044,14 @@
         <v>35652.20600000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>142</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>141</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,7 +4088,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>141</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,7 +4127,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>141</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4250,7 +4166,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>141</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4287,7 +4205,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>141</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4321,12 +4241,12 @@
         <v>36076.28840000001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>141</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4360,12 +4280,12 @@
         <v>35895.57550000001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>141</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>141</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4399,10 +4319,14 @@
         <v>35977.00200000001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="J114" t="n">
+        <v>141</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,12 +4360,12 @@
         <v>35977.00200000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>141</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>141</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,7 +4402,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>141</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4515,7 +4441,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>141</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4549,12 +4477,12 @@
         <v>35923.84200000002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>141</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>141</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4588,10 +4516,14 @@
         <v>36207.84200000002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="J119" t="n">
+        <v>141</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4628,7 +4560,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>141</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,10 +4596,14 @@
         <v>36348.84200000002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>141</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,10 +4637,14 @@
         <v>35589.58450000002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>141</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4736,12 +4678,14 @@
         <v>35895.67630000002</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>139.8</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>141</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4775,12 +4719,14 @@
         <v>36126.67630000002</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>141.1</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>141</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4817,7 +4763,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>141</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4851,12 +4799,12 @@
         <v>23102.27930000002</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>142</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>141</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,10 +4838,14 @@
         <v>25682.27930000002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>141</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,7 +4882,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>141</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4964,10 +4918,14 @@
         <v>27432.41640000002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>141</v>
+      </c>
+      <c r="J129" t="n">
+        <v>141</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5003,8 +4961,12 @@
       <c r="H130" t="n">
         <v>1</v>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>141</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,8 +5002,12 @@
       <c r="H131" t="n">
         <v>1</v>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="J131" t="n">
+        <v>141</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5077,8 +5043,12 @@
       <c r="H132" t="n">
         <v>1</v>
       </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>141</v>
+      </c>
+      <c r="J132" t="n">
+        <v>141</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,8 +5084,12 @@
       <c r="H133" t="n">
         <v>1</v>
       </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>141</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,8 +5125,12 @@
       <c r="H134" t="n">
         <v>1</v>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>141</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5188,8 +5166,12 @@
       <c r="H135" t="n">
         <v>1</v>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="J135" t="n">
+        <v>141</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,8 +5207,12 @@
       <c r="H136" t="n">
         <v>1</v>
       </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="J136" t="n">
+        <v>141</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5262,8 +5248,12 @@
       <c r="H137" t="n">
         <v>1</v>
       </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>140</v>
+      </c>
+      <c r="J137" t="n">
+        <v>141</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5275,6 +5265,6 @@
       <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest RDN.xlsx
+++ b/BackTest/2020-01-21 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>100056.9588</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>99802.88260000003</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>99802.88260000003</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>99802.88260000003</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>102207.8826</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>100066.9178</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>100324.4878</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>100324.4878</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>100797.5799</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>102136.2152</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>101964.2152</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>99397.17070000002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>94373.10310000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>95375.88780000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>70683.73570000002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>63106.33460000002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>50302.92040000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>51055.92050000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>19038.17050000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>19427.17050000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>19039.17050000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3322,14 +3322,10 @@
         <v>24958.48170000001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>140</v>
-      </c>
-      <c r="J89" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3359,1783 +3355,1495 @@
         <v>24958.48170000001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>141</v>
-      </c>
-      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>141</v>
+      </c>
+      <c r="C91" t="n">
+        <v>141</v>
+      </c>
+      <c r="D91" t="n">
+        <v>141</v>
+      </c>
+      <c r="E91" t="n">
+        <v>141</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3458.667</v>
+      </c>
+      <c r="G91" t="n">
+        <v>24958.48170000001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>141</v>
+      </c>
+      <c r="C92" t="n">
+        <v>141</v>
+      </c>
+      <c r="D92" t="n">
+        <v>141</v>
+      </c>
+      <c r="E92" t="n">
+        <v>141</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1971.432</v>
+      </c>
+      <c r="G92" t="n">
+        <v>24958.48170000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>141</v>
+      </c>
+      <c r="C93" t="n">
+        <v>141</v>
+      </c>
+      <c r="D93" t="n">
+        <v>141</v>
+      </c>
+      <c r="E93" t="n">
+        <v>141</v>
+      </c>
+      <c r="F93" t="n">
+        <v>420.2228</v>
+      </c>
+      <c r="G93" t="n">
+        <v>24958.48170000001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
         <v>140</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="C94" t="n">
+        <v>140</v>
+      </c>
+      <c r="D94" t="n">
+        <v>140</v>
+      </c>
+      <c r="E94" t="n">
+        <v>140</v>
+      </c>
+      <c r="F94" t="n">
+        <v>139</v>
+      </c>
+      <c r="G94" t="n">
+        <v>24819.48170000001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>140</v>
+      </c>
+      <c r="C95" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1430.2589</v>
+      </c>
+      <c r="G95" t="n">
+        <v>23389.22280000001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>141</v>
+      </c>
+      <c r="C96" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="D96" t="n">
+        <v>141</v>
+      </c>
+      <c r="E96" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="F96" t="n">
+        <v>101.0011</v>
+      </c>
+      <c r="G96" t="n">
+        <v>23288.22170000001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5103.126</v>
+      </c>
+      <c r="G97" t="n">
+        <v>28391.34770000001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C98" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8054.689</v>
+      </c>
+      <c r="G98" t="n">
+        <v>36446.03670000001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>141</v>
+      </c>
+      <c r="C99" t="n">
+        <v>141</v>
+      </c>
+      <c r="D99" t="n">
+        <v>141</v>
+      </c>
+      <c r="E99" t="n">
+        <v>141</v>
+      </c>
+      <c r="F99" t="n">
+        <v>90.62820000000001</v>
+      </c>
+      <c r="G99" t="n">
+        <v>36355.40850000001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>141</v>
+      </c>
+      <c r="C100" t="n">
+        <v>141</v>
+      </c>
+      <c r="D100" t="n">
+        <v>141</v>
+      </c>
+      <c r="E100" t="n">
+        <v>141</v>
+      </c>
+      <c r="F100" t="n">
+        <v>93.8233</v>
+      </c>
+      <c r="G100" t="n">
+        <v>36355.40850000001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>141</v>
+      </c>
+      <c r="C101" t="n">
+        <v>141</v>
+      </c>
+      <c r="D101" t="n">
+        <v>141</v>
+      </c>
+      <c r="E101" t="n">
+        <v>141</v>
+      </c>
+      <c r="F101" t="n">
+        <v>85.00239999999999</v>
+      </c>
+      <c r="G101" t="n">
+        <v>36355.40850000001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>141</v>
+      </c>
+      <c r="C102" t="n">
+        <v>141</v>
+      </c>
+      <c r="D102" t="n">
+        <v>141</v>
+      </c>
+      <c r="E102" t="n">
+        <v>141</v>
+      </c>
+      <c r="F102" t="n">
+        <v>265.5535</v>
+      </c>
+      <c r="G102" t="n">
+        <v>36355.40850000001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>141</v>
+      </c>
+      <c r="C103" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1165.0813</v>
+      </c>
+      <c r="G103" t="n">
+        <v>37520.48980000001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2577</v>
+      </c>
+      <c r="G104" t="n">
+        <v>34943.48980000001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>141</v>
+      </c>
+      <c r="C105" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="E105" t="n">
+        <v>141</v>
+      </c>
+      <c r="F105" t="n">
+        <v>403.8412</v>
+      </c>
+      <c r="G105" t="n">
+        <v>35347.33100000001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>142</v>
+      </c>
+      <c r="C106" t="n">
+        <v>142</v>
+      </c>
+      <c r="D106" t="n">
+        <v>142</v>
+      </c>
+      <c r="E106" t="n">
+        <v>142</v>
+      </c>
+      <c r="F106" t="n">
+        <v>304.875</v>
+      </c>
+      <c r="G106" t="n">
+        <v>35652.20600000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>142</v>
+      </c>
+      <c r="C107" t="n">
+        <v>142</v>
+      </c>
+      <c r="D107" t="n">
+        <v>142</v>
+      </c>
+      <c r="E107" t="n">
+        <v>142</v>
+      </c>
+      <c r="F107" t="n">
+        <v>70.22880000000001</v>
+      </c>
+      <c r="G107" t="n">
+        <v>35652.20600000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>142</v>
+      </c>
+      <c r="C108" t="n">
+        <v>142</v>
+      </c>
+      <c r="D108" t="n">
+        <v>142</v>
+      </c>
+      <c r="E108" t="n">
+        <v>142</v>
+      </c>
+      <c r="F108" t="n">
+        <v>87.64870000000001</v>
+      </c>
+      <c r="G108" t="n">
+        <v>35652.20600000001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>162.1397</v>
+      </c>
+      <c r="G109" t="n">
+        <v>35490.06630000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>141</v>
+      </c>
+      <c r="C110" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>141</v>
+      </c>
+      <c r="E110" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1418.7779</v>
+      </c>
+      <c r="G110" t="n">
+        <v>34071.28840000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>141</v>
+      </c>
+      <c r="C111" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>141</v>
+      </c>
+      <c r="E111" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1321</v>
+      </c>
+      <c r="G111" t="n">
+        <v>35392.28840000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>141</v>
+      </c>
+      <c r="C112" t="n">
+        <v>141</v>
+      </c>
+      <c r="D112" t="n">
+        <v>141</v>
+      </c>
+      <c r="E112" t="n">
+        <v>141</v>
+      </c>
+      <c r="F112" t="n">
+        <v>684</v>
+      </c>
+      <c r="G112" t="n">
+        <v>36076.28840000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>141</v>
+      </c>
+      <c r="C113" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>141</v>
+      </c>
+      <c r="E113" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="F113" t="n">
+        <v>180.7129</v>
+      </c>
+      <c r="G113" t="n">
+        <v>35895.57550000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>141</v>
+      </c>
+      <c r="C114" t="n">
+        <v>141</v>
+      </c>
+      <c r="D114" t="n">
+        <v>141</v>
+      </c>
+      <c r="E114" t="n">
+        <v>141</v>
+      </c>
+      <c r="F114" t="n">
+        <v>81.4265</v>
+      </c>
+      <c r="G114" t="n">
+        <v>35977.00200000001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>142</v>
+      </c>
+      <c r="C115" t="n">
+        <v>141</v>
+      </c>
+      <c r="D115" t="n">
+        <v>142</v>
+      </c>
+      <c r="E115" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2254.4503</v>
+      </c>
+      <c r="G115" t="n">
+        <v>35977.00200000001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>35.5831</v>
+      </c>
+      <c r="G116" t="n">
+        <v>36012.58510000002</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>141</v>
+      </c>
+      <c r="C117" t="n">
+        <v>141</v>
+      </c>
+      <c r="D117" t="n">
+        <v>141</v>
+      </c>
+      <c r="E117" t="n">
+        <v>141</v>
+      </c>
+      <c r="F117" t="n">
+        <v>83.7431</v>
+      </c>
+      <c r="G117" t="n">
+        <v>35928.84200000002</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="C118" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D118" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>35923.84200000002</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>140</v>
+      </c>
+      <c r="C119" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>140</v>
+      </c>
+      <c r="F119" t="n">
+        <v>284</v>
+      </c>
+      <c r="G119" t="n">
+        <v>36207.84200000002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>278</v>
+      </c>
+      <c r="G120" t="n">
+        <v>35929.84200000002</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>419</v>
+      </c>
+      <c r="G121" t="n">
+        <v>36348.84200000002</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>141</v>
+      </c>
+      <c r="C122" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>141</v>
+      </c>
+      <c r="E122" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>759.2575000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>35589.58450000002</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>141</v>
+      </c>
+      <c r="C123" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>141</v>
+      </c>
+      <c r="F123" t="n">
+        <v>306.0918</v>
+      </c>
+      <c r="G123" t="n">
+        <v>35895.67630000002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>231</v>
+      </c>
+      <c r="G124" t="n">
+        <v>36126.67630000002</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>142</v>
+      </c>
+      <c r="C125" t="n">
+        <v>142</v>
+      </c>
+      <c r="D125" t="n">
+        <v>142</v>
+      </c>
+      <c r="E125" t="n">
+        <v>142</v>
+      </c>
+      <c r="F125" t="n">
+        <v>231</v>
+      </c>
+      <c r="G125" t="n">
+        <v>35895.67630000002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>141</v>
+      </c>
+      <c r="C126" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12793.397</v>
+      </c>
+      <c r="G126" t="n">
+        <v>23102.27930000002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2580</v>
+      </c>
+      <c r="G127" t="n">
+        <v>25682.27930000002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>141</v>
+      </c>
+      <c r="D128" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>141</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1667.1371</v>
+      </c>
+      <c r="G128" t="n">
+        <v>27349.41640000002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>83</v>
+      </c>
+      <c r="G129" t="n">
+        <v>27432.41640000002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>615.0876</v>
+      </c>
+      <c r="G130" t="n">
+        <v>28047.50400000002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>141</v>
+      </c>
+      <c r="C131" t="n">
+        <v>141</v>
+      </c>
+      <c r="D131" t="n">
+        <v>141</v>
+      </c>
+      <c r="E131" t="n">
+        <v>141</v>
+      </c>
+      <c r="F131" t="n">
+        <v>702.2106</v>
+      </c>
+      <c r="G131" t="n">
+        <v>27345.29340000002</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="J131" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>141</v>
-      </c>
-      <c r="C91" t="n">
-        <v>141</v>
-      </c>
-      <c r="D91" t="n">
-        <v>141</v>
-      </c>
-      <c r="E91" t="n">
-        <v>141</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3458.667</v>
-      </c>
-      <c r="G91" t="n">
-        <v>24958.48170000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>141</v>
-      </c>
-      <c r="J91" t="n">
-        <v>140</v>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>111</v>
+      </c>
+      <c r="G132" t="n">
+        <v>27456.29340000002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>141</v>
+      </c>
+      <c r="J132" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>141</v>
-      </c>
-      <c r="C92" t="n">
-        <v>141</v>
-      </c>
-      <c r="D92" t="n">
-        <v>141</v>
-      </c>
-      <c r="E92" t="n">
-        <v>141</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1971.432</v>
-      </c>
-      <c r="G92" t="n">
-        <v>24958.48170000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>141</v>
-      </c>
-      <c r="J92" t="n">
-        <v>141</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>141</v>
-      </c>
-      <c r="C93" t="n">
-        <v>141</v>
-      </c>
-      <c r="D93" t="n">
-        <v>141</v>
-      </c>
-      <c r="E93" t="n">
-        <v>141</v>
-      </c>
-      <c r="F93" t="n">
-        <v>420.2228</v>
-      </c>
-      <c r="G93" t="n">
-        <v>24958.48170000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>141</v>
-      </c>
-      <c r="J93" t="n">
-        <v>141</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>140</v>
-      </c>
-      <c r="C94" t="n">
-        <v>140</v>
-      </c>
-      <c r="D94" t="n">
-        <v>140</v>
-      </c>
-      <c r="E94" t="n">
-        <v>140</v>
-      </c>
-      <c r="F94" t="n">
-        <v>139</v>
-      </c>
-      <c r="G94" t="n">
-        <v>24819.48170000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>141</v>
-      </c>
-      <c r="J94" t="n">
-        <v>141</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>140</v>
-      </c>
-      <c r="C95" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="D95" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="E95" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1430.2589</v>
-      </c>
-      <c r="G95" t="n">
-        <v>23389.22280000001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>140</v>
-      </c>
-      <c r="J95" t="n">
-        <v>141</v>
-      </c>
-      <c r="K95" t="inlineStr">
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2626.8218</v>
+      </c>
+      <c r="G133" t="n">
+        <v>27456.29340000002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>11569.9946</v>
+      </c>
+      <c r="G134" t="n">
+        <v>15886.29880000002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>141</v>
-      </c>
-      <c r="C96" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="D96" t="n">
-        <v>141</v>
-      </c>
-      <c r="E96" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>101.0011</v>
-      </c>
-      <c r="G96" t="n">
-        <v>23288.22170000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>141</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="C97" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="D97" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="E97" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5103.126</v>
-      </c>
-      <c r="G97" t="n">
-        <v>28391.34770000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>141</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="C98" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="D98" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="E98" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>8054.689</v>
-      </c>
-      <c r="G98" t="n">
-        <v>36446.03670000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>141</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>141</v>
-      </c>
-      <c r="C99" t="n">
-        <v>141</v>
-      </c>
-      <c r="D99" t="n">
-        <v>141</v>
-      </c>
-      <c r="E99" t="n">
-        <v>141</v>
-      </c>
-      <c r="F99" t="n">
-        <v>90.62820000000001</v>
-      </c>
-      <c r="G99" t="n">
-        <v>36355.40850000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>141</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>141</v>
-      </c>
-      <c r="C100" t="n">
-        <v>141</v>
-      </c>
-      <c r="D100" t="n">
-        <v>141</v>
-      </c>
-      <c r="E100" t="n">
-        <v>141</v>
-      </c>
-      <c r="F100" t="n">
-        <v>93.8233</v>
-      </c>
-      <c r="G100" t="n">
-        <v>36355.40850000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>141</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>141</v>
-      </c>
-      <c r="C101" t="n">
-        <v>141</v>
-      </c>
-      <c r="D101" t="n">
-        <v>141</v>
-      </c>
-      <c r="E101" t="n">
-        <v>141</v>
-      </c>
-      <c r="F101" t="n">
-        <v>85.00239999999999</v>
-      </c>
-      <c r="G101" t="n">
-        <v>36355.40850000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>141</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>141</v>
-      </c>
-      <c r="C102" t="n">
-        <v>141</v>
-      </c>
-      <c r="D102" t="n">
-        <v>141</v>
-      </c>
-      <c r="E102" t="n">
-        <v>141</v>
-      </c>
-      <c r="F102" t="n">
-        <v>265.5535</v>
-      </c>
-      <c r="G102" t="n">
-        <v>36355.40850000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>141</v>
-      </c>
-      <c r="J102" t="n">
-        <v>141</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>141</v>
-      </c>
-      <c r="C103" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1165.0813</v>
-      </c>
-      <c r="G103" t="n">
-        <v>37520.48980000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>141</v>
-      </c>
-      <c r="J103" t="n">
-        <v>141</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="D104" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2577</v>
-      </c>
-      <c r="G104" t="n">
-        <v>34943.48980000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>141</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>141</v>
-      </c>
-      <c r="C105" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="D105" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="E105" t="n">
-        <v>141</v>
-      </c>
-      <c r="F105" t="n">
-        <v>403.8412</v>
-      </c>
-      <c r="G105" t="n">
-        <v>35347.33100000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>141</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>142</v>
-      </c>
-      <c r="C106" t="n">
-        <v>142</v>
-      </c>
-      <c r="D106" t="n">
-        <v>142</v>
-      </c>
-      <c r="E106" t="n">
-        <v>142</v>
-      </c>
-      <c r="F106" t="n">
-        <v>304.875</v>
-      </c>
-      <c r="G106" t="n">
-        <v>35652.20600000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>141</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>142</v>
-      </c>
-      <c r="C107" t="n">
-        <v>142</v>
-      </c>
-      <c r="D107" t="n">
-        <v>142</v>
-      </c>
-      <c r="E107" t="n">
-        <v>142</v>
-      </c>
-      <c r="F107" t="n">
-        <v>70.22880000000001</v>
-      </c>
-      <c r="G107" t="n">
-        <v>35652.20600000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>142</v>
-      </c>
-      <c r="J107" t="n">
-        <v>141</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>142</v>
-      </c>
-      <c r="C108" t="n">
-        <v>142</v>
-      </c>
-      <c r="D108" t="n">
-        <v>142</v>
-      </c>
-      <c r="E108" t="n">
-        <v>142</v>
-      </c>
-      <c r="F108" t="n">
-        <v>87.64870000000001</v>
-      </c>
-      <c r="G108" t="n">
-        <v>35652.20600000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>141</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="C109" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="E109" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F109" t="n">
-        <v>162.1397</v>
-      </c>
-      <c r="G109" t="n">
-        <v>35490.06630000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>141</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>141</v>
-      </c>
-      <c r="C110" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="D110" t="n">
-        <v>141</v>
-      </c>
-      <c r="E110" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1418.7779</v>
-      </c>
-      <c r="G110" t="n">
-        <v>34071.28840000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>141</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>141</v>
-      </c>
-      <c r="C111" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="D111" t="n">
-        <v>141</v>
-      </c>
-      <c r="E111" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1321</v>
-      </c>
-      <c r="G111" t="n">
-        <v>35392.28840000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>141</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>141</v>
-      </c>
-      <c r="C112" t="n">
-        <v>141</v>
-      </c>
-      <c r="D112" t="n">
-        <v>141</v>
-      </c>
-      <c r="E112" t="n">
-        <v>141</v>
-      </c>
-      <c r="F112" t="n">
-        <v>684</v>
-      </c>
-      <c r="G112" t="n">
-        <v>36076.28840000001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>141</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>141</v>
-      </c>
-      <c r="C113" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="D113" t="n">
-        <v>141</v>
-      </c>
-      <c r="E113" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="F113" t="n">
-        <v>180.7129</v>
-      </c>
-      <c r="G113" t="n">
-        <v>35895.57550000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>141</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>141</v>
-      </c>
-      <c r="C114" t="n">
-        <v>141</v>
-      </c>
-      <c r="D114" t="n">
-        <v>141</v>
-      </c>
-      <c r="E114" t="n">
-        <v>141</v>
-      </c>
-      <c r="F114" t="n">
-        <v>81.4265</v>
-      </c>
-      <c r="G114" t="n">
-        <v>35977.00200000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="J114" t="n">
-        <v>141</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>142</v>
-      </c>
-      <c r="C115" t="n">
-        <v>141</v>
-      </c>
-      <c r="D115" t="n">
-        <v>142</v>
-      </c>
-      <c r="E115" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2254.4503</v>
-      </c>
-      <c r="G115" t="n">
-        <v>35977.00200000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>141</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>35.5831</v>
-      </c>
-      <c r="G116" t="n">
-        <v>36012.58510000002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>141</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>141</v>
-      </c>
-      <c r="C117" t="n">
-        <v>141</v>
-      </c>
-      <c r="D117" t="n">
-        <v>141</v>
-      </c>
-      <c r="E117" t="n">
-        <v>141</v>
-      </c>
-      <c r="F117" t="n">
-        <v>83.7431</v>
-      </c>
-      <c r="G117" t="n">
-        <v>35928.84200000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>141</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="C118" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="D118" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="E118" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F118" t="n">
-        <v>5</v>
-      </c>
-      <c r="G118" t="n">
-        <v>35923.84200000002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>141</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>140</v>
-      </c>
-      <c r="C119" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="D119" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="E119" t="n">
-        <v>140</v>
-      </c>
-      <c r="F119" t="n">
-        <v>284</v>
-      </c>
-      <c r="G119" t="n">
-        <v>36207.84200000002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J119" t="n">
-        <v>141</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="C120" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="D120" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="E120" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>278</v>
-      </c>
-      <c r="G120" t="n">
-        <v>35929.84200000002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>141</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="C121" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="D121" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="F121" t="n">
-        <v>419</v>
-      </c>
-      <c r="G121" t="n">
-        <v>36348.84200000002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="J121" t="n">
-        <v>141</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>141</v>
-      </c>
-      <c r="C122" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="D122" t="n">
-        <v>141</v>
-      </c>
-      <c r="E122" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="F122" t="n">
-        <v>759.2575000000001</v>
-      </c>
-      <c r="G122" t="n">
-        <v>35589.58450000002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="J122" t="n">
-        <v>141</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>141</v>
-      </c>
-      <c r="C123" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="E123" t="n">
-        <v>141</v>
-      </c>
-      <c r="F123" t="n">
-        <v>306.0918</v>
-      </c>
-      <c r="G123" t="n">
-        <v>35895.67630000002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>141</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>231</v>
-      </c>
-      <c r="G124" t="n">
-        <v>36126.67630000002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>141</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>142</v>
-      </c>
-      <c r="C125" t="n">
-        <v>142</v>
-      </c>
-      <c r="D125" t="n">
-        <v>142</v>
-      </c>
-      <c r="E125" t="n">
-        <v>142</v>
-      </c>
-      <c r="F125" t="n">
-        <v>231</v>
-      </c>
-      <c r="G125" t="n">
-        <v>35895.67630000002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>141</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>141</v>
-      </c>
-      <c r="C126" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="D126" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="E126" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>12793.397</v>
-      </c>
-      <c r="G126" t="n">
-        <v>23102.27930000002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>141</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>140.8</v>
-      </c>
-      <c r="C127" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="D127" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2580</v>
-      </c>
-      <c r="G127" t="n">
-        <v>25682.27930000002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="J127" t="n">
-        <v>141</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>141</v>
-      </c>
-      <c r="D128" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>141</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1667.1371</v>
-      </c>
-      <c r="G128" t="n">
-        <v>27349.41640000002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>141</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>83</v>
-      </c>
-      <c r="G129" t="n">
-        <v>27432.41640000002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>141</v>
-      </c>
-      <c r="J129" t="n">
-        <v>141</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="C130" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="D130" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="F130" t="n">
-        <v>615.0876</v>
-      </c>
-      <c r="G130" t="n">
-        <v>28047.50400000002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>141</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>141</v>
-      </c>
-      <c r="C131" t="n">
-        <v>141</v>
-      </c>
-      <c r="D131" t="n">
-        <v>141</v>
-      </c>
-      <c r="E131" t="n">
-        <v>141</v>
-      </c>
-      <c r="F131" t="n">
-        <v>702.2106</v>
-      </c>
-      <c r="G131" t="n">
-        <v>27345.29340000002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="J131" t="n">
-        <v>141</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>111</v>
-      </c>
-      <c r="G132" t="n">
-        <v>27456.29340000002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>141</v>
-      </c>
-      <c r="J132" t="n">
-        <v>141</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2626.8218</v>
-      </c>
-      <c r="G133" t="n">
-        <v>27456.29340000002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>141</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>140.3</v>
-      </c>
-      <c r="D134" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>140.3</v>
-      </c>
-      <c r="F134" t="n">
-        <v>11569.9946</v>
-      </c>
-      <c r="G134" t="n">
-        <v>15886.29880000002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>141</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5170,7 +4878,7 @@
         <v>140.3</v>
       </c>
       <c r="J135" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5211,7 +4919,7 @@
         <v>139.6</v>
       </c>
       <c r="J136" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5252,7 +4960,7 @@
         <v>140</v>
       </c>
       <c r="J137" t="n">
-        <v>141</v>
+        <v>141.1</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5265,6 +4973,6 @@
       <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest RDN.xlsx
+++ b/BackTest/2020-01-21 BackTest RDN.xlsx
@@ -2563,7 +2563,7 @@
         <v>94373.10310000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>95375.88780000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>70683.73570000002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>70483.73570000002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>63106.33460000002</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>50302.92040000002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>51055.92050000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>19038.17050000001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>19427.17050000001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>19039.17050000001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>

--- a/BackTest/2020-01-21 BackTest RDN.xlsx
+++ b/BackTest/2020-01-21 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>248</v>
       </c>
       <c r="G2" t="n">
-        <v>100730.8485</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>665.336</v>
       </c>
       <c r="G3" t="n">
-        <v>101396.1845</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>943.63</v>
       </c>
       <c r="G4" t="n">
-        <v>100452.5545</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>522</v>
       </c>
       <c r="G5" t="n">
-        <v>100974.5545</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1345.61</v>
       </c>
       <c r="G6" t="n">
-        <v>99628.94450000003</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>428.0143</v>
       </c>
       <c r="G7" t="n">
-        <v>100056.9588</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>254.0762</v>
       </c>
       <c r="G8" t="n">
-        <v>99802.88260000003</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>99802.88260000003</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.4278</v>
       </c>
       <c r="G10" t="n">
-        <v>99802.88260000003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2405</v>
       </c>
       <c r="G11" t="n">
-        <v>102207.8826</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2140.9648</v>
       </c>
       <c r="G12" t="n">
-        <v>100066.9178</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>257.57</v>
       </c>
       <c r="G13" t="n">
-        <v>100324.4878</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>94.2154</v>
       </c>
       <c r="G14" t="n">
-        <v>100324.4878</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>473.0921</v>
       </c>
       <c r="G15" t="n">
-        <v>100797.5799</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1338.6353</v>
       </c>
       <c r="G16" t="n">
-        <v>102136.2152</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>172</v>
       </c>
       <c r="G17" t="n">
-        <v>101964.2152</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2485.8569</v>
       </c>
       <c r="G18" t="n">
-        <v>99478.35830000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>740.1334000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>99478.35830000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>81.1876</v>
       </c>
       <c r="G20" t="n">
-        <v>99397.17070000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>23.96</v>
       </c>
       <c r="G21" t="n">
-        <v>99397.17070000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1207.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>98189.17080000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>698.8124</v>
       </c>
       <c r="G23" t="n">
-        <v>98189.17080000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2717.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>95471.17090000003</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>12988.6327</v>
       </c>
       <c r="G25" t="n">
-        <v>82482.53820000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>3000</v>
       </c>
       <c r="G26" t="n">
-        <v>85482.53820000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>10494</v>
       </c>
       <c r="G27" t="n">
-        <v>74988.53820000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>15514.539</v>
       </c>
       <c r="G28" t="n">
-        <v>74988.53820000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>200</v>
       </c>
       <c r="G29" t="n">
-        <v>74988.53820000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2137</v>
       </c>
       <c r="G30" t="n">
-        <v>74988.53820000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>786</v>
       </c>
       <c r="G31" t="n">
-        <v>74988.53820000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>231.01</v>
       </c>
       <c r="G32" t="n">
-        <v>74988.53820000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,19 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>74978.53820000002</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="I33" t="n">
+        <v>141</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1407,23 @@
         <v>1591.0705</v>
       </c>
       <c r="G34" t="n">
-        <v>76569.60870000003</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>140</v>
+      </c>
+      <c r="I34" t="n">
+        <v>141</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1445,23 @@
         <v>78</v>
       </c>
       <c r="G35" t="n">
-        <v>76647.60870000003</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="I35" t="n">
+        <v>141</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1483,23 @@
         <v>3571.8214</v>
       </c>
       <c r="G36" t="n">
-        <v>73075.78730000003</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>141.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>141</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1521,23 @@
         <v>2615</v>
       </c>
       <c r="G37" t="n">
-        <v>75690.78730000003</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>138.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>141</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1559,21 @@
         <v>1396</v>
       </c>
       <c r="G38" t="n">
-        <v>74294.78730000003</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>141</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1595,21 @@
         <v>588</v>
       </c>
       <c r="G39" t="n">
-        <v>73706.78730000003</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>141</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1631,21 @@
         <v>1018</v>
       </c>
       <c r="G40" t="n">
-        <v>72688.78730000003</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>141</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1667,21 @@
         <v>600.1799999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>72688.78730000003</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>141</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1703,21 @@
         <v>1050.82</v>
       </c>
       <c r="G42" t="n">
-        <v>72688.78730000003</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>141</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1739,21 @@
         <v>200</v>
       </c>
       <c r="G43" t="n">
-        <v>72888.78730000003</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>141</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1775,21 @@
         <v>7024.186</v>
       </c>
       <c r="G44" t="n">
-        <v>65864.60130000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>141</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1811,21 @@
         <v>361</v>
       </c>
       <c r="G45" t="n">
-        <v>66225.60130000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>141</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1847,21 @@
         <v>12126.793</v>
       </c>
       <c r="G46" t="n">
-        <v>78352.39430000003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>141</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1883,21 @@
         <v>5983.2772</v>
       </c>
       <c r="G47" t="n">
-        <v>72369.11710000003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>141</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1919,21 @@
         <v>276</v>
       </c>
       <c r="G48" t="n">
-        <v>72093.11710000003</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>141</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1955,23 @@
         <v>235.8839</v>
       </c>
       <c r="G49" t="n">
-        <v>72329.00100000003</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>139.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>141</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1993,23 @@
         <v>3048.0948</v>
       </c>
       <c r="G50" t="n">
-        <v>75377.09580000004</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>139.9</v>
+      </c>
+      <c r="I50" t="n">
+        <v>141</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2031,23 @@
         <v>791.9457</v>
       </c>
       <c r="G51" t="n">
-        <v>75377.09580000004</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>140.6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>141</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2069,23 @@
         <v>758.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>76136.09570000003</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>140.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>141</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2107,21 @@
         <v>1247.9611</v>
       </c>
       <c r="G53" t="n">
-        <v>77384.05680000003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>141</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2143,23 @@
         <v>815.5068</v>
       </c>
       <c r="G54" t="n">
-        <v>76568.55000000003</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>141.9</v>
+      </c>
+      <c r="I54" t="n">
+        <v>141</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2181,21 @@
         <v>266.4465</v>
       </c>
       <c r="G55" t="n">
-        <v>76302.10350000003</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>141</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2217,21 @@
         <v>13212.0024</v>
       </c>
       <c r="G56" t="n">
-        <v>89514.10590000002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>141</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2253,21 @@
         <v>771.74</v>
       </c>
       <c r="G57" t="n">
-        <v>88742.36590000002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>141</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2289,21 @@
         <v>4495.0774</v>
       </c>
       <c r="G58" t="n">
-        <v>93237.44330000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>141</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2325,21 @@
         <v>2774.5711</v>
       </c>
       <c r="G59" t="n">
-        <v>90462.87220000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>141</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2361,21 @@
         <v>1450</v>
       </c>
       <c r="G60" t="n">
-        <v>89012.87220000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>141</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2397,21 @@
         <v>200</v>
       </c>
       <c r="G61" t="n">
-        <v>89212.87220000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>141</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2433,21 @@
         <v>3869.571</v>
       </c>
       <c r="G62" t="n">
-        <v>93082.44320000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>141</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2469,21 @@
         <v>1303</v>
       </c>
       <c r="G63" t="n">
-        <v>94385.44320000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>141</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2505,21 @@
         <v>1410</v>
       </c>
       <c r="G64" t="n">
-        <v>92975.44320000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>141</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2541,21 @@
         <v>1197.6599</v>
       </c>
       <c r="G65" t="n">
-        <v>94173.10310000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>141</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2577,21 @@
         <v>200</v>
       </c>
       <c r="G66" t="n">
-        <v>94373.10310000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>141</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2613,21 @@
         <v>1002.7847</v>
       </c>
       <c r="G67" t="n">
-        <v>95375.88780000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>141</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2649,21 @@
         <v>24892.1521</v>
       </c>
       <c r="G68" t="n">
-        <v>70483.73570000002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>141</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2685,21 @@
         <v>200</v>
       </c>
       <c r="G69" t="n">
-        <v>70483.73570000002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>141</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2721,21 @@
         <v>200</v>
       </c>
       <c r="G70" t="n">
-        <v>70683.73570000002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>141</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2757,21 @@
         <v>200</v>
       </c>
       <c r="G71" t="n">
-        <v>70483.73570000002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>141</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2793,21 @@
         <v>7377.4011</v>
       </c>
       <c r="G72" t="n">
-        <v>63106.33460000002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>141</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2829,21 @@
         <v>12803.4142</v>
       </c>
       <c r="G73" t="n">
-        <v>50302.92040000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>141</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2865,21 @@
         <v>753.0001</v>
       </c>
       <c r="G74" t="n">
-        <v>51055.92050000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>141</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2901,21 @@
         <v>32017.75</v>
       </c>
       <c r="G75" t="n">
-        <v>19038.17050000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>141</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2937,21 @@
         <v>389</v>
       </c>
       <c r="G76" t="n">
-        <v>19427.17050000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>141</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2973,21 @@
         <v>388</v>
       </c>
       <c r="G77" t="n">
-        <v>19039.17050000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>141</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3009,21 @@
         <v>389</v>
       </c>
       <c r="G78" t="n">
-        <v>19039.17050000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>141</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3045,21 @@
         <v>102</v>
       </c>
       <c r="G79" t="n">
-        <v>19141.17050000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>141</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3081,21 @@
         <v>1577</v>
       </c>
       <c r="G80" t="n">
-        <v>19141.17050000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>141</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3117,21 @@
         <v>11.3361</v>
       </c>
       <c r="G81" t="n">
-        <v>19141.17050000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>141</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3153,21 @@
         <v>618</v>
       </c>
       <c r="G82" t="n">
-        <v>18523.17050000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>141</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3189,21 @@
         <v>1976</v>
       </c>
       <c r="G83" t="n">
-        <v>16547.17050000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>141</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3225,21 @@
         <v>7740.3561</v>
       </c>
       <c r="G84" t="n">
-        <v>24287.52660000002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>141</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3261,21 @@
         <v>309</v>
       </c>
       <c r="G85" t="n">
-        <v>23978.52660000002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>141</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3297,21 @@
         <v>246.2932</v>
       </c>
       <c r="G86" t="n">
-        <v>23978.52660000002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>141</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3333,21 @@
         <v>1464.363</v>
       </c>
       <c r="G87" t="n">
-        <v>22514.16360000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>141</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3369,21 @@
         <v>2268.0559</v>
       </c>
       <c r="G88" t="n">
-        <v>24782.21950000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>141</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3405,21 @@
         <v>176.2622</v>
       </c>
       <c r="G89" t="n">
-        <v>24958.48170000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>141</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3441,21 @@
         <v>13307.8083</v>
       </c>
       <c r="G90" t="n">
-        <v>24958.48170000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>141</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3477,21 @@
         <v>3458.667</v>
       </c>
       <c r="G91" t="n">
-        <v>24958.48170000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>141</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3513,21 @@
         <v>1971.432</v>
       </c>
       <c r="G92" t="n">
-        <v>24958.48170000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>141</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3549,21 @@
         <v>420.2228</v>
       </c>
       <c r="G93" t="n">
-        <v>24958.48170000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>141</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3585,21 @@
         <v>139</v>
       </c>
       <c r="G94" t="n">
-        <v>24819.48170000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>141</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3621,21 @@
         <v>1430.2589</v>
       </c>
       <c r="G95" t="n">
-        <v>23389.22280000001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>141</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3657,21 @@
         <v>101.0011</v>
       </c>
       <c r="G96" t="n">
-        <v>23288.22170000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>141</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3693,21 @@
         <v>5103.126</v>
       </c>
       <c r="G97" t="n">
-        <v>28391.34770000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>141</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3729,21 @@
         <v>8054.689</v>
       </c>
       <c r="G98" t="n">
-        <v>36446.03670000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>141</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3765,21 @@
         <v>90.62820000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>36355.40850000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>141</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3801,21 @@
         <v>93.8233</v>
       </c>
       <c r="G100" t="n">
-        <v>36355.40850000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>141</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3837,21 @@
         <v>85.00239999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>36355.40850000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>141</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3873,21 @@
         <v>265.5535</v>
       </c>
       <c r="G102" t="n">
-        <v>36355.40850000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>141</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3909,21 @@
         <v>1165.0813</v>
       </c>
       <c r="G103" t="n">
-        <v>37520.48980000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>141</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3945,21 @@
         <v>2577</v>
       </c>
       <c r="G104" t="n">
-        <v>34943.48980000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>141</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3981,21 @@
         <v>403.8412</v>
       </c>
       <c r="G105" t="n">
-        <v>35347.33100000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>141</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4017,21 @@
         <v>304.875</v>
       </c>
       <c r="G106" t="n">
-        <v>35652.20600000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>141</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4053,21 @@
         <v>70.22880000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>35652.20600000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>141</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4089,21 @@
         <v>87.64870000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>35652.20600000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>141</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4125,21 @@
         <v>162.1397</v>
       </c>
       <c r="G109" t="n">
-        <v>35490.06630000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>141</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4161,21 @@
         <v>1418.7779</v>
       </c>
       <c r="G110" t="n">
-        <v>34071.28840000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>141</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4197,21 @@
         <v>1321</v>
       </c>
       <c r="G111" t="n">
-        <v>35392.28840000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>141</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4233,21 @@
         <v>684</v>
       </c>
       <c r="G112" t="n">
-        <v>36076.28840000001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>141</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4269,21 @@
         <v>180.7129</v>
       </c>
       <c r="G113" t="n">
-        <v>35895.57550000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>141</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4305,21 @@
         <v>81.4265</v>
       </c>
       <c r="G114" t="n">
-        <v>35977.00200000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>141</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4341,21 @@
         <v>2254.4503</v>
       </c>
       <c r="G115" t="n">
-        <v>35977.00200000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>141</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4377,21 @@
         <v>35.5831</v>
       </c>
       <c r="G116" t="n">
-        <v>36012.58510000002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>141</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4413,21 @@
         <v>83.7431</v>
       </c>
       <c r="G117" t="n">
-        <v>35928.84200000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>141</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4449,21 @@
         <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>35923.84200000002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>141</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4485,21 @@
         <v>284</v>
       </c>
       <c r="G119" t="n">
-        <v>36207.84200000002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>141</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4521,21 @@
         <v>278</v>
       </c>
       <c r="G120" t="n">
-        <v>35929.84200000002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>141</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4557,21 @@
         <v>419</v>
       </c>
       <c r="G121" t="n">
-        <v>36348.84200000002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>141</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4593,21 @@
         <v>759.2575000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>35589.58450000002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>141</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4629,21 @@
         <v>306.0918</v>
       </c>
       <c r="G123" t="n">
-        <v>35895.67630000002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>141</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4665,21 @@
         <v>231</v>
       </c>
       <c r="G124" t="n">
-        <v>36126.67630000002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>141</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4701,21 @@
         <v>231</v>
       </c>
       <c r="G125" t="n">
-        <v>35895.67630000002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>141</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4737,21 @@
         <v>12793.397</v>
       </c>
       <c r="G126" t="n">
-        <v>23102.27930000002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>141</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4773,21 @@
         <v>2580</v>
       </c>
       <c r="G127" t="n">
-        <v>25682.27930000002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>141</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4809,21 @@
         <v>1667.1371</v>
       </c>
       <c r="G128" t="n">
-        <v>27349.41640000002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>141</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4845,21 @@
         <v>83</v>
       </c>
       <c r="G129" t="n">
-        <v>27432.41640000002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>141</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,22 +4881,21 @@
         <v>615.0876</v>
       </c>
       <c r="G130" t="n">
-        <v>28047.50400000002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4709,26 +4917,21 @@
         <v>702.2106</v>
       </c>
       <c r="G131" t="n">
-        <v>27345.29340000002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="J131" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4750,26 +4953,21 @@
         <v>111</v>
       </c>
       <c r="G132" t="n">
-        <v>27456.29340000002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
         <v>141</v>
       </c>
-      <c r="J132" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4791,22 +4989,21 @@
         <v>2626.8218</v>
       </c>
       <c r="G133" t="n">
-        <v>27456.29340000002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4828,26 +5025,21 @@
         <v>11569.9946</v>
       </c>
       <c r="G134" t="n">
-        <v>15886.29880000002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4869,26 +5061,21 @@
         <v>845.6892</v>
       </c>
       <c r="G135" t="n">
-        <v>15040.60960000002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>140.3</v>
-      </c>
-      <c r="J135" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4910,26 +5097,21 @@
         <v>200</v>
       </c>
       <c r="G136" t="n">
-        <v>15240.60960000002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="J136" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4951,26 +5133,23 @@
         <v>759</v>
       </c>
       <c r="G137" t="n">
-        <v>15999.60960000002</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="I137" t="n">
-        <v>140</v>
-      </c>
-      <c r="J137" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>141</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
